--- a/design/游戏设计.xlsx
+++ b/design/游戏设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SRC\.NET-WorkSpace\RussianBLock\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219D1882-D1E1-408B-85D8-6E41E087867A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB0A92C-BE99-43FF-B651-60DE95006EE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,29 +382,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CQ114"/>
+  <dimension ref="A1:CP113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BY1" sqref="BY1:BZ1048576"/>
+      <selection activeCell="AW7" sqref="AW7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.625" style="2"/>
-    <col min="3" max="19" width="2.625" style="1"/>
-    <col min="20" max="21" width="2.625" style="2"/>
-    <col min="22" max="38" width="2.625" style="1"/>
-    <col min="39" max="40" width="2.625" style="2"/>
-    <col min="41" max="76" width="2.625" style="1"/>
-    <col min="77" max="78" width="2.625" style="2"/>
-    <col min="79" max="16384" width="2.625" style="1"/>
+    <col min="1" max="1" width="2.625" style="2"/>
+    <col min="2" max="18" width="2.625" style="1"/>
+    <col min="19" max="20" width="2.625" style="2"/>
+    <col min="21" max="37" width="2.625" style="1"/>
+    <col min="38" max="39" width="2.625" style="2"/>
+    <col min="40" max="75" width="2.625" style="1"/>
+    <col min="76" max="77" width="2.625" style="2"/>
+    <col min="78" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:38" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="3:38" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="3:38" x14ac:dyDescent="0.2">
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+    <row r="1" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+    </row>
+    <row r="3" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -419,9 +455,9 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
@@ -436,10 +472,10 @@
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
       <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-    </row>
-    <row r="4" spans="3:38" x14ac:dyDescent="0.2">
-      <c r="C4" s="5"/>
+    </row>
+    <row r="4" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -455,8 +491,8 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
-      <c r="S4" s="5"/>
-      <c r="V4" s="5"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
@@ -472,9 +508,9 @@
       <c r="AI4" s="3"/>
       <c r="AJ4" s="3"/>
       <c r="AK4" s="3"/>
-      <c r="AL4" s="5"/>
-    </row>
-    <row r="5" spans="3:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -491,7 +527,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
+      <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
@@ -508,9 +544,9 @@
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
       <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
-    </row>
-    <row r="6" spans="3:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -527,7 +563,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
+      <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
@@ -544,9 +580,9 @@
       <c r="AI6" s="3"/>
       <c r="AJ6" s="3"/>
       <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-    </row>
-    <row r="7" spans="3:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -563,7 +599,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
+      <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
@@ -580,9 +616,9 @@
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-    </row>
-    <row r="8" spans="3:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -599,7 +635,7 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
+      <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
@@ -616,9 +652,9 @@
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-    </row>
-    <row r="9" spans="3:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -635,7 +671,7 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
+      <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
@@ -652,9 +688,9 @@
       <c r="AI9" s="3"/>
       <c r="AJ9" s="3"/>
       <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
-    </row>
-    <row r="10" spans="3:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -662,7 +698,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -671,7 +707,7 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
+      <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
@@ -679,7 +715,7 @@
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
+      <c r="AC10" s="4"/>
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
@@ -688,9 +724,9 @@
       <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-    </row>
-    <row r="11" spans="3:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -699,7 +735,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="4"/>
+      <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -707,7 +743,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
+      <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
@@ -716,7 +752,7 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-      <c r="AD11" s="4"/>
+      <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
@@ -724,9 +760,9 @@
       <c r="AI11" s="3"/>
       <c r="AJ11" s="3"/>
       <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-    </row>
-    <row r="12" spans="3:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -743,7 +779,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
+      <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
@@ -760,9 +796,9 @@
       <c r="AI12" s="3"/>
       <c r="AJ12" s="3"/>
       <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-    </row>
-    <row r="13" spans="3:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -779,7 +815,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
+      <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
@@ -796,9 +832,9 @@
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3"/>
       <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-    </row>
-    <row r="14" spans="3:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -815,7 +851,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
+      <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
@@ -832,9 +868,9 @@
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-    </row>
-    <row r="15" spans="3:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -851,7 +887,7 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
+      <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
@@ -868,9 +904,9 @@
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
-      <c r="AL15" s="3"/>
-    </row>
-    <row r="16" spans="3:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -887,7 +923,7 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
+      <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
@@ -904,9 +940,9 @@
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
-      <c r="AL16" s="3"/>
-    </row>
-    <row r="17" spans="3:76" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="B17" s="5"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -922,8 +958,8 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
+      <c r="R17" s="5"/>
+      <c r="U17" s="5"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
@@ -939,10 +975,10 @@
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
-    </row>
-    <row r="18" spans="3:76" x14ac:dyDescent="0.2">
+      <c r="AK17" s="5"/>
+    </row>
+    <row r="18" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -957,9 +993,9 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="U18" s="5"/>
       <c r="V18" s="5"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
@@ -974,51 +1010,68 @@
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
-      <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
-      <c r="AL18" s="5"/>
-    </row>
-    <row r="19" spans="3:76" x14ac:dyDescent="0.2">
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
-      <c r="AJ19" s="3"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
-    </row>
-    <row r="20" spans="3:76" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="3:76" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="3:76" x14ac:dyDescent="0.2">
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+    </row>
+    <row r="19" spans="2:75" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:75" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="BG21" s="5"/>
+      <c r="BH21" s="5"/>
+      <c r="BI21" s="3"/>
+      <c r="BJ21" s="3"/>
+      <c r="BK21" s="3"/>
+      <c r="BL21" s="3"/>
+      <c r="BM21" s="3"/>
+      <c r="BN21" s="3"/>
+      <c r="BO21" s="3"/>
+      <c r="BP21" s="3"/>
+      <c r="BQ21" s="3"/>
+      <c r="BR21" s="3"/>
+      <c r="BS21" s="3"/>
+      <c r="BT21" s="3"/>
+      <c r="BU21" s="3"/>
+      <c r="BV21" s="5"/>
+      <c r="BW21" s="5"/>
+    </row>
+    <row r="22" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="B22" s="5"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1033,9 +1086,9 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
@@ -1050,9 +1103,9 @@
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
       <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
-      <c r="BH22" s="5"/>
-      <c r="BI22" s="5"/>
+      <c r="BG22" s="5"/>
+      <c r="BH22" s="3"/>
+      <c r="BI22" s="3"/>
       <c r="BJ22" s="3"/>
       <c r="BK22" s="3"/>
       <c r="BL22" s="3"/>
@@ -1067,10 +1120,10 @@
       <c r="BU22" s="3"/>
       <c r="BV22" s="3"/>
       <c r="BW22" s="5"/>
-      <c r="BX22" s="5"/>
-    </row>
-    <row r="23" spans="3:76" x14ac:dyDescent="0.2">
-      <c r="C23" s="5"/>
+    </row>
+    <row r="23" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1086,8 +1139,8 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
-      <c r="S23" s="5"/>
-      <c r="V23" s="5"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
@@ -1103,8 +1156,8 @@
       <c r="AI23" s="3"/>
       <c r="AJ23" s="3"/>
       <c r="AK23" s="3"/>
-      <c r="AL23" s="5"/>
-      <c r="BH23" s="5"/>
+      <c r="BG23" s="3"/>
+      <c r="BH23" s="3"/>
       <c r="BI23" s="3"/>
       <c r="BJ23" s="3"/>
       <c r="BK23" s="3"/>
@@ -1120,9 +1173,9 @@
       <c r="BU23" s="3"/>
       <c r="BV23" s="3"/>
       <c r="BW23" s="3"/>
-      <c r="BX23" s="5"/>
-    </row>
-    <row r="24" spans="3:76" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1139,7 +1192,7 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
+      <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
@@ -1156,7 +1209,7 @@
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3"/>
       <c r="AK24" s="3"/>
-      <c r="AL24" s="3"/>
+      <c r="BG24" s="3"/>
       <c r="BH24" s="3"/>
       <c r="BI24" s="3"/>
       <c r="BJ24" s="3"/>
@@ -1173,9 +1226,9 @@
       <c r="BU24" s="3"/>
       <c r="BV24" s="3"/>
       <c r="BW24" s="3"/>
-      <c r="BX24" s="3"/>
-    </row>
-    <row r="25" spans="3:76" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1192,7 +1245,7 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
+      <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
@@ -1209,7 +1262,7 @@
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3"/>
       <c r="AK25" s="3"/>
-      <c r="AL25" s="3"/>
+      <c r="BG25" s="3"/>
       <c r="BH25" s="3"/>
       <c r="BI25" s="3"/>
       <c r="BJ25" s="3"/>
@@ -1226,9 +1279,9 @@
       <c r="BU25" s="3"/>
       <c r="BV25" s="3"/>
       <c r="BW25" s="3"/>
-      <c r="BX25" s="3"/>
-    </row>
-    <row r="26" spans="3:76" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1245,7 +1298,7 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
+      <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
@@ -1262,7 +1315,7 @@
       <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
-      <c r="AL26" s="3"/>
+      <c r="BG26" s="3"/>
       <c r="BH26" s="3"/>
       <c r="BI26" s="3"/>
       <c r="BJ26" s="3"/>
@@ -1279,9 +1332,9 @@
       <c r="BU26" s="3"/>
       <c r="BV26" s="3"/>
       <c r="BW26" s="3"/>
-      <c r="BX26" s="3"/>
-    </row>
-    <row r="27" spans="3:76" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1298,7 +1351,7 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
+      <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
@@ -1315,7 +1368,7 @@
       <c r="AI27" s="3"/>
       <c r="AJ27" s="3"/>
       <c r="AK27" s="3"/>
-      <c r="AL27" s="3"/>
+      <c r="BG27" s="3"/>
       <c r="BH27" s="3"/>
       <c r="BI27" s="3"/>
       <c r="BJ27" s="3"/>
@@ -1332,9 +1385,9 @@
       <c r="BU27" s="3"/>
       <c r="BV27" s="3"/>
       <c r="BW27" s="3"/>
-      <c r="BX27" s="3"/>
-    </row>
-    <row r="28" spans="3:76" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1351,7 +1404,7 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
+      <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
@@ -1368,7 +1421,7 @@
       <c r="AI28" s="3"/>
       <c r="AJ28" s="3"/>
       <c r="AK28" s="3"/>
-      <c r="AL28" s="3"/>
+      <c r="BG28" s="3"/>
       <c r="BH28" s="3"/>
       <c r="BI28" s="3"/>
       <c r="BJ28" s="3"/>
@@ -1385,9 +1438,9 @@
       <c r="BU28" s="3"/>
       <c r="BV28" s="3"/>
       <c r="BW28" s="3"/>
-      <c r="BX28" s="3"/>
-    </row>
-    <row r="29" spans="3:76" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1395,7 +1448,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="J29" s="4"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -1404,7 +1457,7 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
+      <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
@@ -1412,7 +1465,7 @@
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
+      <c r="AC29" s="4"/>
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
@@ -1421,7 +1474,7 @@
       <c r="AI29" s="3"/>
       <c r="AJ29" s="3"/>
       <c r="AK29" s="3"/>
-      <c r="AL29" s="3"/>
+      <c r="BG29" s="3"/>
       <c r="BH29" s="3"/>
       <c r="BI29" s="3"/>
       <c r="BJ29" s="3"/>
@@ -1429,7 +1482,7 @@
       <c r="BL29" s="3"/>
       <c r="BM29" s="3"/>
       <c r="BN29" s="3"/>
-      <c r="BO29" s="3"/>
+      <c r="BO29" s="4"/>
       <c r="BP29" s="3"/>
       <c r="BQ29" s="3"/>
       <c r="BR29" s="3"/>
@@ -1438,9 +1491,9 @@
       <c r="BU29" s="3"/>
       <c r="BV29" s="3"/>
       <c r="BW29" s="3"/>
-      <c r="BX29" s="3"/>
-    </row>
-    <row r="30" spans="3:76" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1449,7 +1502,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="4"/>
+      <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -1457,7 +1510,7 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
+      <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
@@ -1466,7 +1519,7 @@
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
-      <c r="AD30" s="4"/>
+      <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
       <c r="AF30" s="3"/>
       <c r="AG30" s="3"/>
@@ -1474,7 +1527,7 @@
       <c r="AI30" s="3"/>
       <c r="AJ30" s="3"/>
       <c r="AK30" s="3"/>
-      <c r="AL30" s="3"/>
+      <c r="BG30" s="3"/>
       <c r="BH30" s="3"/>
       <c r="BI30" s="3"/>
       <c r="BJ30" s="3"/>
@@ -1483,7 +1536,7 @@
       <c r="BM30" s="3"/>
       <c r="BN30" s="3"/>
       <c r="BO30" s="3"/>
-      <c r="BP30" s="4"/>
+      <c r="BP30" s="3"/>
       <c r="BQ30" s="3"/>
       <c r="BR30" s="3"/>
       <c r="BS30" s="3"/>
@@ -1491,9 +1544,9 @@
       <c r="BU30" s="3"/>
       <c r="BV30" s="3"/>
       <c r="BW30" s="3"/>
-      <c r="BX30" s="3"/>
-    </row>
-    <row r="31" spans="3:76" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1510,7 +1563,7 @@
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
+      <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
@@ -1527,7 +1580,7 @@
       <c r="AI31" s="3"/>
       <c r="AJ31" s="3"/>
       <c r="AK31" s="3"/>
-      <c r="AL31" s="3"/>
+      <c r="BG31" s="3"/>
       <c r="BH31" s="3"/>
       <c r="BI31" s="3"/>
       <c r="BJ31" s="3"/>
@@ -1544,9 +1597,9 @@
       <c r="BU31" s="3"/>
       <c r="BV31" s="3"/>
       <c r="BW31" s="3"/>
-      <c r="BX31" s="3"/>
-    </row>
-    <row r="32" spans="3:76" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1563,7 +1616,7 @@
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
+      <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
@@ -1580,7 +1633,7 @@
       <c r="AI32" s="3"/>
       <c r="AJ32" s="3"/>
       <c r="AK32" s="3"/>
-      <c r="AL32" s="3"/>
+      <c r="BG32" s="3"/>
       <c r="BH32" s="3"/>
       <c r="BI32" s="3"/>
       <c r="BJ32" s="3"/>
@@ -1597,9 +1650,9 @@
       <c r="BU32" s="3"/>
       <c r="BV32" s="3"/>
       <c r="BW32" s="3"/>
-      <c r="BX32" s="3"/>
-    </row>
-    <row r="33" spans="3:95" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:94" x14ac:dyDescent="0.2">
+      <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1616,7 +1669,7 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
+      <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
@@ -1633,7 +1686,7 @@
       <c r="AI33" s="3"/>
       <c r="AJ33" s="3"/>
       <c r="AK33" s="3"/>
-      <c r="AL33" s="3"/>
+      <c r="BG33" s="3"/>
       <c r="BH33" s="3"/>
       <c r="BI33" s="3"/>
       <c r="BJ33" s="3"/>
@@ -1650,9 +1703,9 @@
       <c r="BU33" s="3"/>
       <c r="BV33" s="3"/>
       <c r="BW33" s="3"/>
-      <c r="BX33" s="3"/>
-    </row>
-    <row r="34" spans="3:95" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:94" x14ac:dyDescent="0.2">
+      <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -1669,7 +1722,7 @@
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
+      <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
@@ -1686,7 +1739,7 @@
       <c r="AI34" s="3"/>
       <c r="AJ34" s="3"/>
       <c r="AK34" s="3"/>
-      <c r="AL34" s="3"/>
+      <c r="BG34" s="3"/>
       <c r="BH34" s="3"/>
       <c r="BI34" s="3"/>
       <c r="BJ34" s="3"/>
@@ -1703,9 +1756,9 @@
       <c r="BU34" s="3"/>
       <c r="BV34" s="3"/>
       <c r="BW34" s="3"/>
-      <c r="BX34" s="3"/>
-    </row>
-    <row r="35" spans="3:95" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="2:94" x14ac:dyDescent="0.2">
+      <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -1722,7 +1775,7 @@
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
+      <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
@@ -1739,7 +1792,7 @@
       <c r="AI35" s="3"/>
       <c r="AJ35" s="3"/>
       <c r="AK35" s="3"/>
-      <c r="AL35" s="3"/>
+      <c r="BG35" s="3"/>
       <c r="BH35" s="3"/>
       <c r="BI35" s="3"/>
       <c r="BJ35" s="3"/>
@@ -1756,9 +1809,9 @@
       <c r="BU35" s="3"/>
       <c r="BV35" s="3"/>
       <c r="BW35" s="3"/>
-      <c r="BX35" s="3"/>
-    </row>
-    <row r="36" spans="3:95" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="2:94" x14ac:dyDescent="0.2">
+      <c r="B36" s="5"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -1774,8 +1827,8 @@
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
+      <c r="R36" s="5"/>
+      <c r="U36" s="5"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
@@ -1791,8 +1844,8 @@
       <c r="AH36" s="3"/>
       <c r="AI36" s="3"/>
       <c r="AJ36" s="3"/>
-      <c r="AK36" s="3"/>
-      <c r="AL36" s="3"/>
+      <c r="AK36" s="5"/>
+      <c r="BG36" s="5"/>
       <c r="BH36" s="3"/>
       <c r="BI36" s="3"/>
       <c r="BJ36" s="3"/>
@@ -1808,10 +1861,10 @@
       <c r="BT36" s="3"/>
       <c r="BU36" s="3"/>
       <c r="BV36" s="3"/>
-      <c r="BW36" s="3"/>
-      <c r="BX36" s="3"/>
-    </row>
-    <row r="37" spans="3:95" x14ac:dyDescent="0.2">
+      <c r="BW36" s="5"/>
+    </row>
+    <row r="37" spans="2:94" x14ac:dyDescent="0.2">
+      <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -1826,9 +1879,9 @@
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="U37" s="5"/>
       <c r="V37" s="5"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
@@ -1843,9 +1896,9 @@
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
       <c r="AI37" s="3"/>
-      <c r="AJ37" s="3"/>
-      <c r="AK37" s="3"/>
-      <c r="AL37" s="5"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="5"/>
+      <c r="BG37" s="5"/>
       <c r="BH37" s="5"/>
       <c r="BI37" s="3"/>
       <c r="BJ37" s="3"/>
@@ -1860,68 +1913,68 @@
       <c r="BS37" s="3"/>
       <c r="BT37" s="3"/>
       <c r="BU37" s="3"/>
-      <c r="BV37" s="3"/>
-      <c r="BW37" s="3"/>
-      <c r="BX37" s="5"/>
-    </row>
-    <row r="38" spans="3:95" x14ac:dyDescent="0.2">
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
-      <c r="AA38" s="3"/>
-      <c r="AB38" s="3"/>
-      <c r="AC38" s="3"/>
-      <c r="AD38" s="3"/>
-      <c r="AE38" s="3"/>
-      <c r="AF38" s="3"/>
-      <c r="AG38" s="3"/>
-      <c r="AH38" s="3"/>
-      <c r="AI38" s="3"/>
-      <c r="AJ38" s="3"/>
-      <c r="AK38" s="5"/>
-      <c r="AL38" s="5"/>
-      <c r="BH38" s="5"/>
-      <c r="BI38" s="5"/>
-      <c r="BJ38" s="3"/>
-      <c r="BK38" s="3"/>
-      <c r="BL38" s="3"/>
-      <c r="BM38" s="3"/>
-      <c r="BN38" s="3"/>
-      <c r="BO38" s="3"/>
-      <c r="BP38" s="3"/>
-      <c r="BQ38" s="3"/>
-      <c r="BR38" s="3"/>
-      <c r="BS38" s="3"/>
-      <c r="BT38" s="3"/>
-      <c r="BU38" s="3"/>
-      <c r="BV38" s="3"/>
-      <c r="BW38" s="5"/>
-      <c r="BX38" s="5"/>
-    </row>
-    <row r="39" spans="3:95" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="3:95" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="3:95" x14ac:dyDescent="0.2">
-      <c r="AO41" s="5"/>
-      <c r="AP41" s="5"/>
+      <c r="BV37" s="5"/>
+      <c r="BW37" s="5"/>
+    </row>
+    <row r="38" spans="2:94" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="2:94" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="2:94" x14ac:dyDescent="0.2">
+      <c r="AN40" s="5"/>
+      <c r="AO40" s="5"/>
+      <c r="AP40" s="3"/>
+      <c r="AQ40" s="3"/>
+      <c r="AR40" s="3"/>
+      <c r="AS40" s="3"/>
+      <c r="AT40" s="3"/>
+      <c r="AU40" s="3"/>
+      <c r="AV40" s="3"/>
+      <c r="AW40" s="3"/>
+      <c r="AX40" s="3"/>
+      <c r="AY40" s="3"/>
+      <c r="AZ40" s="3"/>
+      <c r="BA40" s="3"/>
+      <c r="BB40" s="3"/>
+      <c r="BC40" s="5"/>
+      <c r="BD40" s="5"/>
+      <c r="BG40" s="5"/>
+      <c r="BH40" s="5"/>
+      <c r="BI40" s="3"/>
+      <c r="BJ40" s="3"/>
+      <c r="BK40" s="3"/>
+      <c r="BL40" s="3"/>
+      <c r="BM40" s="3"/>
+      <c r="BN40" s="3"/>
+      <c r="BO40" s="3"/>
+      <c r="BP40" s="3"/>
+      <c r="BQ40" s="3"/>
+      <c r="BR40" s="3"/>
+      <c r="BS40" s="3"/>
+      <c r="BT40" s="3"/>
+      <c r="BU40" s="3"/>
+      <c r="BV40" s="5"/>
+      <c r="BW40" s="5"/>
+      <c r="BZ40" s="5"/>
+      <c r="CA40" s="5"/>
+      <c r="CB40" s="3"/>
+      <c r="CC40" s="3"/>
+      <c r="CD40" s="3"/>
+      <c r="CE40" s="3"/>
+      <c r="CF40" s="3"/>
+      <c r="CG40" s="3"/>
+      <c r="CH40" s="3"/>
+      <c r="CI40" s="3"/>
+      <c r="CJ40" s="3"/>
+      <c r="CK40" s="3"/>
+      <c r="CL40" s="3"/>
+      <c r="CM40" s="3"/>
+      <c r="CN40" s="3"/>
+      <c r="CO40" s="5"/>
+      <c r="CP40" s="5"/>
+    </row>
+    <row r="41" spans="2:94" x14ac:dyDescent="0.2">
+      <c r="AN41" s="5"/>
+      <c r="AO41" s="3"/>
+      <c r="AP41" s="3"/>
       <c r="AQ41" s="3"/>
       <c r="AR41" s="3"/>
       <c r="AS41" s="3"/>
@@ -1936,9 +1989,9 @@
       <c r="BB41" s="3"/>
       <c r="BC41" s="3"/>
       <c r="BD41" s="5"/>
-      <c r="BE41" s="5"/>
-      <c r="BH41" s="5"/>
-      <c r="BI41" s="5"/>
+      <c r="BG41" s="5"/>
+      <c r="BH41" s="3"/>
+      <c r="BI41" s="3"/>
       <c r="BJ41" s="3"/>
       <c r="BK41" s="3"/>
       <c r="BL41" s="3"/>
@@ -1953,9 +2006,9 @@
       <c r="BU41" s="3"/>
       <c r="BV41" s="3"/>
       <c r="BW41" s="5"/>
-      <c r="BX41" s="5"/>
-      <c r="CA41" s="5"/>
-      <c r="CB41" s="5"/>
+      <c r="BZ41" s="5"/>
+      <c r="CA41" s="3"/>
+      <c r="CB41" s="3"/>
       <c r="CC41" s="3"/>
       <c r="CD41" s="3"/>
       <c r="CE41" s="3"/>
@@ -1970,10 +2023,10 @@
       <c r="CN41" s="3"/>
       <c r="CO41" s="3"/>
       <c r="CP41" s="5"/>
-      <c r="CQ41" s="5"/>
-    </row>
-    <row r="42" spans="3:95" x14ac:dyDescent="0.2">
-      <c r="AO42" s="5"/>
+    </row>
+    <row r="42" spans="2:94" x14ac:dyDescent="0.2">
+      <c r="AN42" s="3"/>
+      <c r="AO42" s="3"/>
       <c r="AP42" s="3"/>
       <c r="AQ42" s="3"/>
       <c r="AR42" s="3"/>
@@ -1989,8 +2042,8 @@
       <c r="BB42" s="3"/>
       <c r="BC42" s="3"/>
       <c r="BD42" s="3"/>
-      <c r="BE42" s="5"/>
-      <c r="BH42" s="5"/>
+      <c r="BG42" s="3"/>
+      <c r="BH42" s="3"/>
       <c r="BI42" s="3"/>
       <c r="BJ42" s="3"/>
       <c r="BK42" s="3"/>
@@ -2006,8 +2059,8 @@
       <c r="BU42" s="3"/>
       <c r="BV42" s="3"/>
       <c r="BW42" s="3"/>
-      <c r="BX42" s="5"/>
-      <c r="CA42" s="5"/>
+      <c r="BZ42" s="3"/>
+      <c r="CA42" s="3"/>
       <c r="CB42" s="3"/>
       <c r="CC42" s="3"/>
       <c r="CD42" s="3"/>
@@ -2023,9 +2076,9 @@
       <c r="CN42" s="3"/>
       <c r="CO42" s="3"/>
       <c r="CP42" s="3"/>
-      <c r="CQ42" s="5"/>
-    </row>
-    <row r="43" spans="3:95" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="2:94" x14ac:dyDescent="0.2">
+      <c r="AN43" s="3"/>
       <c r="AO43" s="3"/>
       <c r="AP43" s="3"/>
       <c r="AQ43" s="3"/>
@@ -2042,7 +2095,7 @@
       <c r="BB43" s="3"/>
       <c r="BC43" s="3"/>
       <c r="BD43" s="3"/>
-      <c r="BE43" s="3"/>
+      <c r="BG43" s="3"/>
       <c r="BH43" s="3"/>
       <c r="BI43" s="3"/>
       <c r="BJ43" s="3"/>
@@ -2059,7 +2112,7 @@
       <c r="BU43" s="3"/>
       <c r="BV43" s="3"/>
       <c r="BW43" s="3"/>
-      <c r="BX43" s="3"/>
+      <c r="BZ43" s="3"/>
       <c r="CA43" s="3"/>
       <c r="CB43" s="3"/>
       <c r="CC43" s="3"/>
@@ -2076,9 +2129,9 @@
       <c r="CN43" s="3"/>
       <c r="CO43" s="3"/>
       <c r="CP43" s="3"/>
-      <c r="CQ43" s="3"/>
-    </row>
-    <row r="44" spans="3:95" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="2:94" x14ac:dyDescent="0.2">
+      <c r="AN44" s="3"/>
       <c r="AO44" s="3"/>
       <c r="AP44" s="3"/>
       <c r="AQ44" s="3"/>
@@ -2095,7 +2148,7 @@
       <c r="BB44" s="3"/>
       <c r="BC44" s="3"/>
       <c r="BD44" s="3"/>
-      <c r="BE44" s="3"/>
+      <c r="BG44" s="3"/>
       <c r="BH44" s="3"/>
       <c r="BI44" s="3"/>
       <c r="BJ44" s="3"/>
@@ -2112,7 +2165,7 @@
       <c r="BU44" s="3"/>
       <c r="BV44" s="3"/>
       <c r="BW44" s="3"/>
-      <c r="BX44" s="3"/>
+      <c r="BZ44" s="3"/>
       <c r="CA44" s="3"/>
       <c r="CB44" s="3"/>
       <c r="CC44" s="3"/>
@@ -2129,9 +2182,9 @@
       <c r="CN44" s="3"/>
       <c r="CO44" s="3"/>
       <c r="CP44" s="3"/>
-      <c r="CQ44" s="3"/>
-    </row>
-    <row r="45" spans="3:95" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="2:94" x14ac:dyDescent="0.2">
+      <c r="AN45" s="3"/>
       <c r="AO45" s="3"/>
       <c r="AP45" s="3"/>
       <c r="AQ45" s="3"/>
@@ -2148,7 +2201,7 @@
       <c r="BB45" s="3"/>
       <c r="BC45" s="3"/>
       <c r="BD45" s="3"/>
-      <c r="BE45" s="3"/>
+      <c r="BG45" s="3"/>
       <c r="BH45" s="3"/>
       <c r="BI45" s="3"/>
       <c r="BJ45" s="3"/>
@@ -2165,7 +2218,7 @@
       <c r="BU45" s="3"/>
       <c r="BV45" s="3"/>
       <c r="BW45" s="3"/>
-      <c r="BX45" s="3"/>
+      <c r="BZ45" s="3"/>
       <c r="CA45" s="3"/>
       <c r="CB45" s="3"/>
       <c r="CC45" s="3"/>
@@ -2182,9 +2235,9 @@
       <c r="CN45" s="3"/>
       <c r="CO45" s="3"/>
       <c r="CP45" s="3"/>
-      <c r="CQ45" s="3"/>
-    </row>
-    <row r="46" spans="3:95" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="2:94" x14ac:dyDescent="0.2">
+      <c r="AN46" s="3"/>
       <c r="AO46" s="3"/>
       <c r="AP46" s="3"/>
       <c r="AQ46" s="3"/>
@@ -2201,7 +2254,7 @@
       <c r="BB46" s="3"/>
       <c r="BC46" s="3"/>
       <c r="BD46" s="3"/>
-      <c r="BE46" s="3"/>
+      <c r="BG46" s="3"/>
       <c r="BH46" s="3"/>
       <c r="BI46" s="3"/>
       <c r="BJ46" s="3"/>
@@ -2218,7 +2271,7 @@
       <c r="BU46" s="3"/>
       <c r="BV46" s="3"/>
       <c r="BW46" s="3"/>
-      <c r="BX46" s="3"/>
+      <c r="BZ46" s="3"/>
       <c r="CA46" s="3"/>
       <c r="CB46" s="3"/>
       <c r="CC46" s="3"/>
@@ -2235,9 +2288,9 @@
       <c r="CN46" s="3"/>
       <c r="CO46" s="3"/>
       <c r="CP46" s="3"/>
-      <c r="CQ46" s="3"/>
-    </row>
-    <row r="47" spans="3:95" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="2:94" x14ac:dyDescent="0.2">
+      <c r="AN47" s="3"/>
       <c r="AO47" s="3"/>
       <c r="AP47" s="3"/>
       <c r="AQ47" s="3"/>
@@ -2254,7 +2307,7 @@
       <c r="BB47" s="3"/>
       <c r="BC47" s="3"/>
       <c r="BD47" s="3"/>
-      <c r="BE47" s="3"/>
+      <c r="BG47" s="3"/>
       <c r="BH47" s="3"/>
       <c r="BI47" s="3"/>
       <c r="BJ47" s="3"/>
@@ -2271,7 +2324,7 @@
       <c r="BU47" s="3"/>
       <c r="BV47" s="3"/>
       <c r="BW47" s="3"/>
-      <c r="BX47" s="3"/>
+      <c r="BZ47" s="3"/>
       <c r="CA47" s="3"/>
       <c r="CB47" s="3"/>
       <c r="CC47" s="3"/>
@@ -2288,9 +2341,9 @@
       <c r="CN47" s="3"/>
       <c r="CO47" s="3"/>
       <c r="CP47" s="3"/>
-      <c r="CQ47" s="3"/>
-    </row>
-    <row r="48" spans="3:95" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="2:94" x14ac:dyDescent="0.2">
+      <c r="AN48" s="3"/>
       <c r="AO48" s="3"/>
       <c r="AP48" s="3"/>
       <c r="AQ48" s="3"/>
@@ -2298,7 +2351,7 @@
       <c r="AS48" s="3"/>
       <c r="AT48" s="3"/>
       <c r="AU48" s="3"/>
-      <c r="AV48" s="3"/>
+      <c r="AV48" s="4"/>
       <c r="AW48" s="3"/>
       <c r="AX48" s="3"/>
       <c r="AY48" s="3"/>
@@ -2307,7 +2360,7 @@
       <c r="BB48" s="3"/>
       <c r="BC48" s="3"/>
       <c r="BD48" s="3"/>
-      <c r="BE48" s="3"/>
+      <c r="BG48" s="3"/>
       <c r="BH48" s="3"/>
       <c r="BI48" s="3"/>
       <c r="BJ48" s="3"/>
@@ -2315,7 +2368,7 @@
       <c r="BL48" s="3"/>
       <c r="BM48" s="3"/>
       <c r="BN48" s="3"/>
-      <c r="BO48" s="3"/>
+      <c r="BO48" s="4"/>
       <c r="BP48" s="3"/>
       <c r="BQ48" s="3"/>
       <c r="BR48" s="3"/>
@@ -2324,7 +2377,7 @@
       <c r="BU48" s="3"/>
       <c r="BV48" s="3"/>
       <c r="BW48" s="3"/>
-      <c r="BX48" s="3"/>
+      <c r="BZ48" s="3"/>
       <c r="CA48" s="3"/>
       <c r="CB48" s="3"/>
       <c r="CC48" s="3"/>
@@ -2332,7 +2385,7 @@
       <c r="CE48" s="3"/>
       <c r="CF48" s="3"/>
       <c r="CG48" s="3"/>
-      <c r="CH48" s="3"/>
+      <c r="CH48" s="4"/>
       <c r="CI48" s="3"/>
       <c r="CJ48" s="3"/>
       <c r="CK48" s="3"/>
@@ -2341,9 +2394,9 @@
       <c r="CN48" s="3"/>
       <c r="CO48" s="3"/>
       <c r="CP48" s="3"/>
-      <c r="CQ48" s="3"/>
-    </row>
-    <row r="49" spans="41:95" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="40:94" x14ac:dyDescent="0.2">
+      <c r="AN49" s="3"/>
       <c r="AO49" s="3"/>
       <c r="AP49" s="3"/>
       <c r="AQ49" s="3"/>
@@ -2352,7 +2405,7 @@
       <c r="AT49" s="3"/>
       <c r="AU49" s="3"/>
       <c r="AV49" s="3"/>
-      <c r="AW49" s="4"/>
+      <c r="AW49" s="3"/>
       <c r="AX49" s="3"/>
       <c r="AY49" s="3"/>
       <c r="AZ49" s="3"/>
@@ -2360,7 +2413,7 @@
       <c r="BB49" s="3"/>
       <c r="BC49" s="3"/>
       <c r="BD49" s="3"/>
-      <c r="BE49" s="3"/>
+      <c r="BG49" s="3"/>
       <c r="BH49" s="3"/>
       <c r="BI49" s="3"/>
       <c r="BJ49" s="3"/>
@@ -2369,7 +2422,7 @@
       <c r="BM49" s="3"/>
       <c r="BN49" s="3"/>
       <c r="BO49" s="3"/>
-      <c r="BP49" s="4"/>
+      <c r="BP49" s="3"/>
       <c r="BQ49" s="3"/>
       <c r="BR49" s="3"/>
       <c r="BS49" s="3"/>
@@ -2377,7 +2430,7 @@
       <c r="BU49" s="3"/>
       <c r="BV49" s="3"/>
       <c r="BW49" s="3"/>
-      <c r="BX49" s="3"/>
+      <c r="BZ49" s="3"/>
       <c r="CA49" s="3"/>
       <c r="CB49" s="3"/>
       <c r="CC49" s="3"/>
@@ -2386,7 +2439,7 @@
       <c r="CF49" s="3"/>
       <c r="CG49" s="3"/>
       <c r="CH49" s="3"/>
-      <c r="CI49" s="4"/>
+      <c r="CI49" s="3"/>
       <c r="CJ49" s="3"/>
       <c r="CK49" s="3"/>
       <c r="CL49" s="3"/>
@@ -2394,9 +2447,9 @@
       <c r="CN49" s="3"/>
       <c r="CO49" s="3"/>
       <c r="CP49" s="3"/>
-      <c r="CQ49" s="3"/>
-    </row>
-    <row r="50" spans="41:95" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="40:94" x14ac:dyDescent="0.2">
+      <c r="AN50" s="3"/>
       <c r="AO50" s="3"/>
       <c r="AP50" s="3"/>
       <c r="AQ50" s="3"/>
@@ -2413,7 +2466,7 @@
       <c r="BB50" s="3"/>
       <c r="BC50" s="3"/>
       <c r="BD50" s="3"/>
-      <c r="BE50" s="3"/>
+      <c r="BG50" s="3"/>
       <c r="BH50" s="3"/>
       <c r="BI50" s="3"/>
       <c r="BJ50" s="3"/>
@@ -2430,7 +2483,7 @@
       <c r="BU50" s="3"/>
       <c r="BV50" s="3"/>
       <c r="BW50" s="3"/>
-      <c r="BX50" s="3"/>
+      <c r="BZ50" s="3"/>
       <c r="CA50" s="3"/>
       <c r="CB50" s="3"/>
       <c r="CC50" s="3"/>
@@ -2447,9 +2500,9 @@
       <c r="CN50" s="3"/>
       <c r="CO50" s="3"/>
       <c r="CP50" s="3"/>
-      <c r="CQ50" s="3"/>
-    </row>
-    <row r="51" spans="41:95" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="40:94" x14ac:dyDescent="0.2">
+      <c r="AN51" s="3"/>
       <c r="AO51" s="3"/>
       <c r="AP51" s="3"/>
       <c r="AQ51" s="3"/>
@@ -2466,7 +2519,7 @@
       <c r="BB51" s="3"/>
       <c r="BC51" s="3"/>
       <c r="BD51" s="3"/>
-      <c r="BE51" s="3"/>
+      <c r="BG51" s="3"/>
       <c r="BH51" s="3"/>
       <c r="BI51" s="3"/>
       <c r="BJ51" s="3"/>
@@ -2483,7 +2536,7 @@
       <c r="BU51" s="3"/>
       <c r="BV51" s="3"/>
       <c r="BW51" s="3"/>
-      <c r="BX51" s="3"/>
+      <c r="BZ51" s="3"/>
       <c r="CA51" s="3"/>
       <c r="CB51" s="3"/>
       <c r="CC51" s="3"/>
@@ -2500,9 +2553,9 @@
       <c r="CN51" s="3"/>
       <c r="CO51" s="3"/>
       <c r="CP51" s="3"/>
-      <c r="CQ51" s="3"/>
-    </row>
-    <row r="52" spans="41:95" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="40:94" x14ac:dyDescent="0.2">
+      <c r="AN52" s="3"/>
       <c r="AO52" s="3"/>
       <c r="AP52" s="3"/>
       <c r="AQ52" s="3"/>
@@ -2519,7 +2572,7 @@
       <c r="BB52" s="3"/>
       <c r="BC52" s="3"/>
       <c r="BD52" s="3"/>
-      <c r="BE52" s="3"/>
+      <c r="BG52" s="3"/>
       <c r="BH52" s="3"/>
       <c r="BI52" s="3"/>
       <c r="BJ52" s="3"/>
@@ -2536,7 +2589,7 @@
       <c r="BU52" s="3"/>
       <c r="BV52" s="3"/>
       <c r="BW52" s="3"/>
-      <c r="BX52" s="3"/>
+      <c r="BZ52" s="3"/>
       <c r="CA52" s="3"/>
       <c r="CB52" s="3"/>
       <c r="CC52" s="3"/>
@@ -2553,9 +2606,9 @@
       <c r="CN52" s="3"/>
       <c r="CO52" s="3"/>
       <c r="CP52" s="3"/>
-      <c r="CQ52" s="3"/>
-    </row>
-    <row r="53" spans="41:95" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="40:94" x14ac:dyDescent="0.2">
+      <c r="AN53" s="3"/>
       <c r="AO53" s="3"/>
       <c r="AP53" s="3"/>
       <c r="AQ53" s="3"/>
@@ -2572,7 +2625,7 @@
       <c r="BB53" s="3"/>
       <c r="BC53" s="3"/>
       <c r="BD53" s="3"/>
-      <c r="BE53" s="3"/>
+      <c r="BG53" s="3"/>
       <c r="BH53" s="3"/>
       <c r="BI53" s="3"/>
       <c r="BJ53" s="3"/>
@@ -2589,7 +2642,7 @@
       <c r="BU53" s="3"/>
       <c r="BV53" s="3"/>
       <c r="BW53" s="3"/>
-      <c r="BX53" s="3"/>
+      <c r="BZ53" s="3"/>
       <c r="CA53" s="3"/>
       <c r="CB53" s="3"/>
       <c r="CC53" s="3"/>
@@ -2606,9 +2659,9 @@
       <c r="CN53" s="3"/>
       <c r="CO53" s="3"/>
       <c r="CP53" s="3"/>
-      <c r="CQ53" s="3"/>
-    </row>
-    <row r="54" spans="41:95" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="40:94" x14ac:dyDescent="0.2">
+      <c r="AN54" s="3"/>
       <c r="AO54" s="3"/>
       <c r="AP54" s="3"/>
       <c r="AQ54" s="3"/>
@@ -2625,7 +2678,7 @@
       <c r="BB54" s="3"/>
       <c r="BC54" s="3"/>
       <c r="BD54" s="3"/>
-      <c r="BE54" s="3"/>
+      <c r="BG54" s="3"/>
       <c r="BH54" s="3"/>
       <c r="BI54" s="3"/>
       <c r="BJ54" s="3"/>
@@ -2642,7 +2695,7 @@
       <c r="BU54" s="3"/>
       <c r="BV54" s="3"/>
       <c r="BW54" s="3"/>
-      <c r="BX54" s="3"/>
+      <c r="BZ54" s="3"/>
       <c r="CA54" s="3"/>
       <c r="CB54" s="3"/>
       <c r="CC54" s="3"/>
@@ -2659,9 +2712,9 @@
       <c r="CN54" s="3"/>
       <c r="CO54" s="3"/>
       <c r="CP54" s="3"/>
-      <c r="CQ54" s="3"/>
-    </row>
-    <row r="55" spans="41:95" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="40:94" x14ac:dyDescent="0.2">
+      <c r="AN55" s="5"/>
       <c r="AO55" s="3"/>
       <c r="AP55" s="3"/>
       <c r="AQ55" s="3"/>
@@ -2677,8 +2730,8 @@
       <c r="BA55" s="3"/>
       <c r="BB55" s="3"/>
       <c r="BC55" s="3"/>
-      <c r="BD55" s="3"/>
-      <c r="BE55" s="3"/>
+      <c r="BD55" s="5"/>
+      <c r="BG55" s="5"/>
       <c r="BH55" s="3"/>
       <c r="BI55" s="3"/>
       <c r="BJ55" s="3"/>
@@ -2694,8 +2747,8 @@
       <c r="BT55" s="3"/>
       <c r="BU55" s="3"/>
       <c r="BV55" s="3"/>
-      <c r="BW55" s="3"/>
-      <c r="BX55" s="3"/>
+      <c r="BW55" s="5"/>
+      <c r="BZ55" s="5"/>
       <c r="CA55" s="3"/>
       <c r="CB55" s="3"/>
       <c r="CC55" s="3"/>
@@ -2711,10 +2764,10 @@
       <c r="CM55" s="3"/>
       <c r="CN55" s="3"/>
       <c r="CO55" s="3"/>
-      <c r="CP55" s="3"/>
-      <c r="CQ55" s="3"/>
-    </row>
-    <row r="56" spans="41:95" x14ac:dyDescent="0.2">
+      <c r="CP55" s="5"/>
+    </row>
+    <row r="56" spans="40:94" x14ac:dyDescent="0.2">
+      <c r="AN56" s="5"/>
       <c r="AO56" s="5"/>
       <c r="AP56" s="3"/>
       <c r="AQ56" s="3"/>
@@ -2729,9 +2782,9 @@
       <c r="AZ56" s="3"/>
       <c r="BA56" s="3"/>
       <c r="BB56" s="3"/>
-      <c r="BC56" s="3"/>
-      <c r="BD56" s="3"/>
-      <c r="BE56" s="5"/>
+      <c r="BC56" s="5"/>
+      <c r="BD56" s="5"/>
+      <c r="BG56" s="5"/>
       <c r="BH56" s="5"/>
       <c r="BI56" s="3"/>
       <c r="BJ56" s="3"/>
@@ -2746,9 +2799,9 @@
       <c r="BS56" s="3"/>
       <c r="BT56" s="3"/>
       <c r="BU56" s="3"/>
-      <c r="BV56" s="3"/>
-      <c r="BW56" s="3"/>
-      <c r="BX56" s="5"/>
+      <c r="BV56" s="5"/>
+      <c r="BW56" s="5"/>
+      <c r="BZ56" s="5"/>
       <c r="CA56" s="5"/>
       <c r="CB56" s="3"/>
       <c r="CC56" s="3"/>
@@ -2763,68 +2816,51 @@
       <c r="CL56" s="3"/>
       <c r="CM56" s="3"/>
       <c r="CN56" s="3"/>
-      <c r="CO56" s="3"/>
-      <c r="CP56" s="3"/>
-      <c r="CQ56" s="5"/>
-    </row>
-    <row r="57" spans="41:95" x14ac:dyDescent="0.2">
-      <c r="AO57" s="5"/>
-      <c r="AP57" s="5"/>
-      <c r="AQ57" s="3"/>
-      <c r="AR57" s="3"/>
-      <c r="AS57" s="3"/>
-      <c r="AT57" s="3"/>
-      <c r="AU57" s="3"/>
-      <c r="AV57" s="3"/>
-      <c r="AW57" s="3"/>
-      <c r="AX57" s="3"/>
-      <c r="AY57" s="3"/>
-      <c r="AZ57" s="3"/>
-      <c r="BA57" s="3"/>
-      <c r="BB57" s="3"/>
-      <c r="BC57" s="3"/>
-      <c r="BD57" s="5"/>
-      <c r="BE57" s="5"/>
-      <c r="BH57" s="5"/>
-      <c r="BI57" s="5"/>
-      <c r="BJ57" s="3"/>
-      <c r="BK57" s="3"/>
-      <c r="BL57" s="3"/>
-      <c r="BM57" s="3"/>
-      <c r="BN57" s="3"/>
-      <c r="BO57" s="3"/>
-      <c r="BP57" s="3"/>
-      <c r="BQ57" s="3"/>
-      <c r="BR57" s="3"/>
-      <c r="BS57" s="3"/>
-      <c r="BT57" s="3"/>
-      <c r="BU57" s="3"/>
-      <c r="BV57" s="3"/>
-      <c r="BW57" s="5"/>
-      <c r="BX57" s="5"/>
-      <c r="CA57" s="5"/>
-      <c r="CB57" s="5"/>
-      <c r="CC57" s="3"/>
-      <c r="CD57" s="3"/>
-      <c r="CE57" s="3"/>
-      <c r="CF57" s="3"/>
-      <c r="CG57" s="3"/>
-      <c r="CH57" s="3"/>
-      <c r="CI57" s="3"/>
-      <c r="CJ57" s="3"/>
-      <c r="CK57" s="3"/>
-      <c r="CL57" s="3"/>
-      <c r="CM57" s="3"/>
-      <c r="CN57" s="3"/>
-      <c r="CO57" s="3"/>
-      <c r="CP57" s="5"/>
-      <c r="CQ57" s="5"/>
-    </row>
-    <row r="58" spans="41:95" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="41:95" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="41:95" x14ac:dyDescent="0.2">
-      <c r="AO60" s="5"/>
-      <c r="AP60" s="5"/>
+      <c r="CO56" s="5"/>
+      <c r="CP56" s="5"/>
+    </row>
+    <row r="57" spans="40:94" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="40:94" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="40:94" x14ac:dyDescent="0.2">
+      <c r="AN59" s="5"/>
+      <c r="AO59" s="5"/>
+      <c r="AP59" s="3"/>
+      <c r="AQ59" s="3"/>
+      <c r="AR59" s="3"/>
+      <c r="AS59" s="3"/>
+      <c r="AT59" s="3"/>
+      <c r="AU59" s="3"/>
+      <c r="AV59" s="3"/>
+      <c r="AW59" s="3"/>
+      <c r="AX59" s="3"/>
+      <c r="AY59" s="3"/>
+      <c r="AZ59" s="3"/>
+      <c r="BA59" s="3"/>
+      <c r="BB59" s="3"/>
+      <c r="BC59" s="5"/>
+      <c r="BD59" s="5"/>
+      <c r="BZ59" s="5"/>
+      <c r="CA59" s="5"/>
+      <c r="CB59" s="3"/>
+      <c r="CC59" s="3"/>
+      <c r="CD59" s="3"/>
+      <c r="CE59" s="3"/>
+      <c r="CF59" s="3"/>
+      <c r="CG59" s="3"/>
+      <c r="CH59" s="3"/>
+      <c r="CI59" s="3"/>
+      <c r="CJ59" s="3"/>
+      <c r="CK59" s="3"/>
+      <c r="CL59" s="3"/>
+      <c r="CM59" s="3"/>
+      <c r="CN59" s="3"/>
+      <c r="CO59" s="5"/>
+      <c r="CP59" s="5"/>
+    </row>
+    <row r="60" spans="40:94" x14ac:dyDescent="0.2">
+      <c r="AN60" s="5"/>
+      <c r="AO60" s="3"/>
+      <c r="AP60" s="3"/>
       <c r="AQ60" s="3"/>
       <c r="AR60" s="3"/>
       <c r="AS60" s="3"/>
@@ -2839,9 +2875,9 @@
       <c r="BB60" s="3"/>
       <c r="BC60" s="3"/>
       <c r="BD60" s="5"/>
-      <c r="BE60" s="5"/>
-      <c r="CA60" s="5"/>
-      <c r="CB60" s="5"/>
+      <c r="BZ60" s="5"/>
+      <c r="CA60" s="3"/>
+      <c r="CB60" s="3"/>
       <c r="CC60" s="3"/>
       <c r="CD60" s="3"/>
       <c r="CE60" s="3"/>
@@ -2856,10 +2892,10 @@
       <c r="CN60" s="3"/>
       <c r="CO60" s="3"/>
       <c r="CP60" s="5"/>
-      <c r="CQ60" s="5"/>
-    </row>
-    <row r="61" spans="41:95" x14ac:dyDescent="0.2">
-      <c r="AO61" s="5"/>
+    </row>
+    <row r="61" spans="40:94" x14ac:dyDescent="0.2">
+      <c r="AN61" s="3"/>
+      <c r="AO61" s="3"/>
       <c r="AP61" s="3"/>
       <c r="AQ61" s="3"/>
       <c r="AR61" s="3"/>
@@ -2875,8 +2911,8 @@
       <c r="BB61" s="3"/>
       <c r="BC61" s="3"/>
       <c r="BD61" s="3"/>
-      <c r="BE61" s="5"/>
-      <c r="CA61" s="5"/>
+      <c r="BZ61" s="3"/>
+      <c r="CA61" s="3"/>
       <c r="CB61" s="3"/>
       <c r="CC61" s="3"/>
       <c r="CD61" s="3"/>
@@ -2892,9 +2928,9 @@
       <c r="CN61" s="3"/>
       <c r="CO61" s="3"/>
       <c r="CP61" s="3"/>
-      <c r="CQ61" s="5"/>
-    </row>
-    <row r="62" spans="41:95" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="40:94" x14ac:dyDescent="0.2">
+      <c r="AN62" s="3"/>
       <c r="AO62" s="3"/>
       <c r="AP62" s="3"/>
       <c r="AQ62" s="3"/>
@@ -2911,7 +2947,7 @@
       <c r="BB62" s="3"/>
       <c r="BC62" s="3"/>
       <c r="BD62" s="3"/>
-      <c r="BE62" s="3"/>
+      <c r="BZ62" s="3"/>
       <c r="CA62" s="3"/>
       <c r="CB62" s="3"/>
       <c r="CC62" s="3"/>
@@ -2928,9 +2964,9 @@
       <c r="CN62" s="3"/>
       <c r="CO62" s="3"/>
       <c r="CP62" s="3"/>
-      <c r="CQ62" s="3"/>
-    </row>
-    <row r="63" spans="41:95" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="40:94" x14ac:dyDescent="0.2">
+      <c r="AN63" s="3"/>
       <c r="AO63" s="3"/>
       <c r="AP63" s="3"/>
       <c r="AQ63" s="3"/>
@@ -2947,7 +2983,7 @@
       <c r="BB63" s="3"/>
       <c r="BC63" s="3"/>
       <c r="BD63" s="3"/>
-      <c r="BE63" s="3"/>
+      <c r="BZ63" s="3"/>
       <c r="CA63" s="3"/>
       <c r="CB63" s="3"/>
       <c r="CC63" s="3"/>
@@ -2964,9 +3000,9 @@
       <c r="CN63" s="3"/>
       <c r="CO63" s="3"/>
       <c r="CP63" s="3"/>
-      <c r="CQ63" s="3"/>
-    </row>
-    <row r="64" spans="41:95" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="40:94" x14ac:dyDescent="0.2">
+      <c r="AN64" s="3"/>
       <c r="AO64" s="3"/>
       <c r="AP64" s="3"/>
       <c r="AQ64" s="3"/>
@@ -2983,7 +3019,7 @@
       <c r="BB64" s="3"/>
       <c r="BC64" s="3"/>
       <c r="BD64" s="3"/>
-      <c r="BE64" s="3"/>
+      <c r="BZ64" s="3"/>
       <c r="CA64" s="3"/>
       <c r="CB64" s="3"/>
       <c r="CC64" s="3"/>
@@ -3000,9 +3036,9 @@
       <c r="CN64" s="3"/>
       <c r="CO64" s="3"/>
       <c r="CP64" s="3"/>
-      <c r="CQ64" s="3"/>
-    </row>
-    <row r="65" spans="41:95" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="40:94" x14ac:dyDescent="0.2">
+      <c r="AN65" s="3"/>
       <c r="AO65" s="3"/>
       <c r="AP65" s="3"/>
       <c r="AQ65" s="3"/>
@@ -3019,7 +3055,7 @@
       <c r="BB65" s="3"/>
       <c r="BC65" s="3"/>
       <c r="BD65" s="3"/>
-      <c r="BE65" s="3"/>
+      <c r="BZ65" s="3"/>
       <c r="CA65" s="3"/>
       <c r="CB65" s="3"/>
       <c r="CC65" s="3"/>
@@ -3036,9 +3072,9 @@
       <c r="CN65" s="3"/>
       <c r="CO65" s="3"/>
       <c r="CP65" s="3"/>
-      <c r="CQ65" s="3"/>
-    </row>
-    <row r="66" spans="41:95" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="40:94" x14ac:dyDescent="0.2">
+      <c r="AN66" s="3"/>
       <c r="AO66" s="3"/>
       <c r="AP66" s="3"/>
       <c r="AQ66" s="3"/>
@@ -3055,7 +3091,7 @@
       <c r="BB66" s="3"/>
       <c r="BC66" s="3"/>
       <c r="BD66" s="3"/>
-      <c r="BE66" s="3"/>
+      <c r="BZ66" s="3"/>
       <c r="CA66" s="3"/>
       <c r="CB66" s="3"/>
       <c r="CC66" s="3"/>
@@ -3072,9 +3108,9 @@
       <c r="CN66" s="3"/>
       <c r="CO66" s="3"/>
       <c r="CP66" s="3"/>
-      <c r="CQ66" s="3"/>
-    </row>
-    <row r="67" spans="41:95" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="40:94" x14ac:dyDescent="0.2">
+      <c r="AN67" s="3"/>
       <c r="AO67" s="3"/>
       <c r="AP67" s="3"/>
       <c r="AQ67" s="3"/>
@@ -3082,7 +3118,7 @@
       <c r="AS67" s="3"/>
       <c r="AT67" s="3"/>
       <c r="AU67" s="3"/>
-      <c r="AV67" s="3"/>
+      <c r="AV67" s="4"/>
       <c r="AW67" s="3"/>
       <c r="AX67" s="3"/>
       <c r="AY67" s="3"/>
@@ -3091,7 +3127,7 @@
       <c r="BB67" s="3"/>
       <c r="BC67" s="3"/>
       <c r="BD67" s="3"/>
-      <c r="BE67" s="3"/>
+      <c r="BZ67" s="3"/>
       <c r="CA67" s="3"/>
       <c r="CB67" s="3"/>
       <c r="CC67" s="3"/>
@@ -3099,7 +3135,7 @@
       <c r="CE67" s="3"/>
       <c r="CF67" s="3"/>
       <c r="CG67" s="3"/>
-      <c r="CH67" s="3"/>
+      <c r="CH67" s="4"/>
       <c r="CI67" s="3"/>
       <c r="CJ67" s="3"/>
       <c r="CK67" s="3"/>
@@ -3108,9 +3144,9 @@
       <c r="CN67" s="3"/>
       <c r="CO67" s="3"/>
       <c r="CP67" s="3"/>
-      <c r="CQ67" s="3"/>
-    </row>
-    <row r="68" spans="41:95" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="40:94" x14ac:dyDescent="0.2">
+      <c r="AN68" s="3"/>
       <c r="AO68" s="3"/>
       <c r="AP68" s="3"/>
       <c r="AQ68" s="3"/>
@@ -3119,7 +3155,7 @@
       <c r="AT68" s="3"/>
       <c r="AU68" s="3"/>
       <c r="AV68" s="3"/>
-      <c r="AW68" s="4"/>
+      <c r="AW68" s="3"/>
       <c r="AX68" s="3"/>
       <c r="AY68" s="3"/>
       <c r="AZ68" s="3"/>
@@ -3127,7 +3163,7 @@
       <c r="BB68" s="3"/>
       <c r="BC68" s="3"/>
       <c r="BD68" s="3"/>
-      <c r="BE68" s="3"/>
+      <c r="BZ68" s="3"/>
       <c r="CA68" s="3"/>
       <c r="CB68" s="3"/>
       <c r="CC68" s="3"/>
@@ -3136,7 +3172,7 @@
       <c r="CF68" s="3"/>
       <c r="CG68" s="3"/>
       <c r="CH68" s="3"/>
-      <c r="CI68" s="4"/>
+      <c r="CI68" s="3"/>
       <c r="CJ68" s="3"/>
       <c r="CK68" s="3"/>
       <c r="CL68" s="3"/>
@@ -3144,9 +3180,9 @@
       <c r="CN68" s="3"/>
       <c r="CO68" s="3"/>
       <c r="CP68" s="3"/>
-      <c r="CQ68" s="3"/>
-    </row>
-    <row r="69" spans="41:95" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="40:94" x14ac:dyDescent="0.2">
+      <c r="AN69" s="3"/>
       <c r="AO69" s="3"/>
       <c r="AP69" s="3"/>
       <c r="AQ69" s="3"/>
@@ -3163,7 +3199,7 @@
       <c r="BB69" s="3"/>
       <c r="BC69" s="3"/>
       <c r="BD69" s="3"/>
-      <c r="BE69" s="3"/>
+      <c r="BZ69" s="3"/>
       <c r="CA69" s="3"/>
       <c r="CB69" s="3"/>
       <c r="CC69" s="3"/>
@@ -3180,9 +3216,9 @@
       <c r="CN69" s="3"/>
       <c r="CO69" s="3"/>
       <c r="CP69" s="3"/>
-      <c r="CQ69" s="3"/>
-    </row>
-    <row r="70" spans="41:95" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="40:94" x14ac:dyDescent="0.2">
+      <c r="AN70" s="3"/>
       <c r="AO70" s="3"/>
       <c r="AP70" s="3"/>
       <c r="AQ70" s="3"/>
@@ -3199,7 +3235,7 @@
       <c r="BB70" s="3"/>
       <c r="BC70" s="3"/>
       <c r="BD70" s="3"/>
-      <c r="BE70" s="3"/>
+      <c r="BZ70" s="3"/>
       <c r="CA70" s="3"/>
       <c r="CB70" s="3"/>
       <c r="CC70" s="3"/>
@@ -3216,9 +3252,9 @@
       <c r="CN70" s="3"/>
       <c r="CO70" s="3"/>
       <c r="CP70" s="3"/>
-      <c r="CQ70" s="3"/>
-    </row>
-    <row r="71" spans="41:95" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="40:94" x14ac:dyDescent="0.2">
+      <c r="AN71" s="3"/>
       <c r="AO71" s="3"/>
       <c r="AP71" s="3"/>
       <c r="AQ71" s="3"/>
@@ -3235,7 +3271,7 @@
       <c r="BB71" s="3"/>
       <c r="BC71" s="3"/>
       <c r="BD71" s="3"/>
-      <c r="BE71" s="3"/>
+      <c r="BZ71" s="3"/>
       <c r="CA71" s="3"/>
       <c r="CB71" s="3"/>
       <c r="CC71" s="3"/>
@@ -3252,9 +3288,9 @@
       <c r="CN71" s="3"/>
       <c r="CO71" s="3"/>
       <c r="CP71" s="3"/>
-      <c r="CQ71" s="3"/>
-    </row>
-    <row r="72" spans="41:95" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="40:94" x14ac:dyDescent="0.2">
+      <c r="AN72" s="3"/>
       <c r="AO72" s="3"/>
       <c r="AP72" s="3"/>
       <c r="AQ72" s="3"/>
@@ -3271,7 +3307,7 @@
       <c r="BB72" s="3"/>
       <c r="BC72" s="3"/>
       <c r="BD72" s="3"/>
-      <c r="BE72" s="3"/>
+      <c r="BZ72" s="3"/>
       <c r="CA72" s="3"/>
       <c r="CB72" s="3"/>
       <c r="CC72" s="3"/>
@@ -3288,9 +3324,9 @@
       <c r="CN72" s="3"/>
       <c r="CO72" s="3"/>
       <c r="CP72" s="3"/>
-      <c r="CQ72" s="3"/>
-    </row>
-    <row r="73" spans="41:95" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="40:94" x14ac:dyDescent="0.2">
+      <c r="AN73" s="3"/>
       <c r="AO73" s="3"/>
       <c r="AP73" s="3"/>
       <c r="AQ73" s="3"/>
@@ -3307,7 +3343,7 @@
       <c r="BB73" s="3"/>
       <c r="BC73" s="3"/>
       <c r="BD73" s="3"/>
-      <c r="BE73" s="3"/>
+      <c r="BZ73" s="3"/>
       <c r="CA73" s="3"/>
       <c r="CB73" s="3"/>
       <c r="CC73" s="3"/>
@@ -3324,9 +3360,9 @@
       <c r="CN73" s="3"/>
       <c r="CO73" s="3"/>
       <c r="CP73" s="3"/>
-      <c r="CQ73" s="3"/>
-    </row>
-    <row r="74" spans="41:95" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="40:94" x14ac:dyDescent="0.2">
+      <c r="AN74" s="5"/>
       <c r="AO74" s="3"/>
       <c r="AP74" s="3"/>
       <c r="AQ74" s="3"/>
@@ -3342,8 +3378,8 @@
       <c r="BA74" s="3"/>
       <c r="BB74" s="3"/>
       <c r="BC74" s="3"/>
-      <c r="BD74" s="3"/>
-      <c r="BE74" s="3"/>
+      <c r="BD74" s="5"/>
+      <c r="BZ74" s="5"/>
       <c r="CA74" s="3"/>
       <c r="CB74" s="3"/>
       <c r="CC74" s="3"/>
@@ -3359,10 +3395,10 @@
       <c r="CM74" s="3"/>
       <c r="CN74" s="3"/>
       <c r="CO74" s="3"/>
-      <c r="CP74" s="3"/>
-      <c r="CQ74" s="3"/>
-    </row>
-    <row r="75" spans="41:95" x14ac:dyDescent="0.2">
+      <c r="CP74" s="5"/>
+    </row>
+    <row r="75" spans="40:94" x14ac:dyDescent="0.2">
+      <c r="AN75" s="5"/>
       <c r="AO75" s="5"/>
       <c r="AP75" s="3"/>
       <c r="AQ75" s="3"/>
@@ -3377,9 +3413,9 @@
       <c r="AZ75" s="3"/>
       <c r="BA75" s="3"/>
       <c r="BB75" s="3"/>
-      <c r="BC75" s="3"/>
-      <c r="BD75" s="3"/>
-      <c r="BE75" s="5"/>
+      <c r="BC75" s="5"/>
+      <c r="BD75" s="5"/>
+      <c r="BZ75" s="5"/>
       <c r="CA75" s="5"/>
       <c r="CB75" s="3"/>
       <c r="CC75" s="3"/>
@@ -3394,51 +3430,34 @@
       <c r="CL75" s="3"/>
       <c r="CM75" s="3"/>
       <c r="CN75" s="3"/>
-      <c r="CO75" s="3"/>
-      <c r="CP75" s="3"/>
-      <c r="CQ75" s="5"/>
-    </row>
-    <row r="76" spans="41:95" x14ac:dyDescent="0.2">
-      <c r="AO76" s="5"/>
-      <c r="AP76" s="5"/>
-      <c r="AQ76" s="3"/>
-      <c r="AR76" s="3"/>
-      <c r="AS76" s="3"/>
-      <c r="AT76" s="3"/>
-      <c r="AU76" s="3"/>
-      <c r="AV76" s="3"/>
-      <c r="AW76" s="3"/>
-      <c r="AX76" s="3"/>
-      <c r="AY76" s="3"/>
-      <c r="AZ76" s="3"/>
-      <c r="BA76" s="3"/>
-      <c r="BB76" s="3"/>
-      <c r="BC76" s="3"/>
-      <c r="BD76" s="5"/>
-      <c r="BE76" s="5"/>
-      <c r="CA76" s="5"/>
-      <c r="CB76" s="5"/>
-      <c r="CC76" s="3"/>
-      <c r="CD76" s="3"/>
-      <c r="CE76" s="3"/>
-      <c r="CF76" s="3"/>
-      <c r="CG76" s="3"/>
-      <c r="CH76" s="3"/>
-      <c r="CI76" s="3"/>
-      <c r="CJ76" s="3"/>
-      <c r="CK76" s="3"/>
-      <c r="CL76" s="3"/>
-      <c r="CM76" s="3"/>
-      <c r="CN76" s="3"/>
-      <c r="CO76" s="3"/>
-      <c r="CP76" s="5"/>
-      <c r="CQ76" s="5"/>
-    </row>
-    <row r="77" spans="41:95" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="41:95" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="41:95" x14ac:dyDescent="0.2">
-      <c r="AO79" s="5"/>
-      <c r="AP79" s="5"/>
+      <c r="CO75" s="5"/>
+      <c r="CP75" s="5"/>
+    </row>
+    <row r="76" spans="40:94" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="40:94" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="40:94" x14ac:dyDescent="0.2">
+      <c r="AN78" s="5"/>
+      <c r="AO78" s="5"/>
+      <c r="AP78" s="3"/>
+      <c r="AQ78" s="3"/>
+      <c r="AR78" s="3"/>
+      <c r="AS78" s="3"/>
+      <c r="AT78" s="3"/>
+      <c r="AU78" s="3"/>
+      <c r="AV78" s="3"/>
+      <c r="AW78" s="3"/>
+      <c r="AX78" s="3"/>
+      <c r="AY78" s="3"/>
+      <c r="AZ78" s="3"/>
+      <c r="BA78" s="3"/>
+      <c r="BB78" s="3"/>
+      <c r="BC78" s="5"/>
+      <c r="BD78" s="5"/>
+    </row>
+    <row r="79" spans="40:94" x14ac:dyDescent="0.2">
+      <c r="AN79" s="5"/>
+      <c r="AO79" s="3"/>
+      <c r="AP79" s="3"/>
       <c r="AQ79" s="3"/>
       <c r="AR79" s="3"/>
       <c r="AS79" s="3"/>
@@ -3453,10 +3472,10 @@
       <c r="BB79" s="3"/>
       <c r="BC79" s="3"/>
       <c r="BD79" s="5"/>
-      <c r="BE79" s="5"/>
-    </row>
-    <row r="80" spans="41:95" x14ac:dyDescent="0.2">
-      <c r="AO80" s="5"/>
+    </row>
+    <row r="80" spans="40:94" x14ac:dyDescent="0.2">
+      <c r="AN80" s="3"/>
+      <c r="AO80" s="3"/>
       <c r="AP80" s="3"/>
       <c r="AQ80" s="3"/>
       <c r="AR80" s="3"/>
@@ -3472,9 +3491,9 @@
       <c r="BB80" s="3"/>
       <c r="BC80" s="3"/>
       <c r="BD80" s="3"/>
-      <c r="BE80" s="5"/>
-    </row>
-    <row r="81" spans="41:57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="40:56" x14ac:dyDescent="0.2">
+      <c r="AN81" s="3"/>
       <c r="AO81" s="3"/>
       <c r="AP81" s="3"/>
       <c r="AQ81" s="3"/>
@@ -3491,9 +3510,9 @@
       <c r="BB81" s="3"/>
       <c r="BC81" s="3"/>
       <c r="BD81" s="3"/>
-      <c r="BE81" s="3"/>
-    </row>
-    <row r="82" spans="41:57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="40:56" x14ac:dyDescent="0.2">
+      <c r="AN82" s="3"/>
       <c r="AO82" s="3"/>
       <c r="AP82" s="3"/>
       <c r="AQ82" s="3"/>
@@ -3510,9 +3529,9 @@
       <c r="BB82" s="3"/>
       <c r="BC82" s="3"/>
       <c r="BD82" s="3"/>
-      <c r="BE82" s="3"/>
-    </row>
-    <row r="83" spans="41:57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="40:56" x14ac:dyDescent="0.2">
+      <c r="AN83" s="3"/>
       <c r="AO83" s="3"/>
       <c r="AP83" s="3"/>
       <c r="AQ83" s="3"/>
@@ -3529,9 +3548,9 @@
       <c r="BB83" s="3"/>
       <c r="BC83" s="3"/>
       <c r="BD83" s="3"/>
-      <c r="BE83" s="3"/>
-    </row>
-    <row r="84" spans="41:57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="40:56" x14ac:dyDescent="0.2">
+      <c r="AN84" s="3"/>
       <c r="AO84" s="3"/>
       <c r="AP84" s="3"/>
       <c r="AQ84" s="3"/>
@@ -3548,9 +3567,9 @@
       <c r="BB84" s="3"/>
       <c r="BC84" s="3"/>
       <c r="BD84" s="3"/>
-      <c r="BE84" s="3"/>
-    </row>
-    <row r="85" spans="41:57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="40:56" x14ac:dyDescent="0.2">
+      <c r="AN85" s="3"/>
       <c r="AO85" s="3"/>
       <c r="AP85" s="3"/>
       <c r="AQ85" s="3"/>
@@ -3567,9 +3586,9 @@
       <c r="BB85" s="3"/>
       <c r="BC85" s="3"/>
       <c r="BD85" s="3"/>
-      <c r="BE85" s="3"/>
-    </row>
-    <row r="86" spans="41:57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="40:56" x14ac:dyDescent="0.2">
+      <c r="AN86" s="3"/>
       <c r="AO86" s="3"/>
       <c r="AP86" s="3"/>
       <c r="AQ86" s="3"/>
@@ -3577,7 +3596,7 @@
       <c r="AS86" s="3"/>
       <c r="AT86" s="3"/>
       <c r="AU86" s="3"/>
-      <c r="AV86" s="3"/>
+      <c r="AV86" s="4"/>
       <c r="AW86" s="3"/>
       <c r="AX86" s="3"/>
       <c r="AY86" s="3"/>
@@ -3586,9 +3605,9 @@
       <c r="BB86" s="3"/>
       <c r="BC86" s="3"/>
       <c r="BD86" s="3"/>
-      <c r="BE86" s="3"/>
-    </row>
-    <row r="87" spans="41:57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="40:56" x14ac:dyDescent="0.2">
+      <c r="AN87" s="3"/>
       <c r="AO87" s="3"/>
       <c r="AP87" s="3"/>
       <c r="AQ87" s="3"/>
@@ -3597,7 +3616,7 @@
       <c r="AT87" s="3"/>
       <c r="AU87" s="3"/>
       <c r="AV87" s="3"/>
-      <c r="AW87" s="4"/>
+      <c r="AW87" s="3"/>
       <c r="AX87" s="3"/>
       <c r="AY87" s="3"/>
       <c r="AZ87" s="3"/>
@@ -3605,9 +3624,9 @@
       <c r="BB87" s="3"/>
       <c r="BC87" s="3"/>
       <c r="BD87" s="3"/>
-      <c r="BE87" s="3"/>
-    </row>
-    <row r="88" spans="41:57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="40:56" x14ac:dyDescent="0.2">
+      <c r="AN88" s="3"/>
       <c r="AO88" s="3"/>
       <c r="AP88" s="3"/>
       <c r="AQ88" s="3"/>
@@ -3624,9 +3643,9 @@
       <c r="BB88" s="3"/>
       <c r="BC88" s="3"/>
       <c r="BD88" s="3"/>
-      <c r="BE88" s="3"/>
-    </row>
-    <row r="89" spans="41:57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="40:56" x14ac:dyDescent="0.2">
+      <c r="AN89" s="3"/>
       <c r="AO89" s="3"/>
       <c r="AP89" s="3"/>
       <c r="AQ89" s="3"/>
@@ -3643,9 +3662,9 @@
       <c r="BB89" s="3"/>
       <c r="BC89" s="3"/>
       <c r="BD89" s="3"/>
-      <c r="BE89" s="3"/>
-    </row>
-    <row r="90" spans="41:57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="40:56" x14ac:dyDescent="0.2">
+      <c r="AN90" s="3"/>
       <c r="AO90" s="3"/>
       <c r="AP90" s="3"/>
       <c r="AQ90" s="3"/>
@@ -3662,9 +3681,9 @@
       <c r="BB90" s="3"/>
       <c r="BC90" s="3"/>
       <c r="BD90" s="3"/>
-      <c r="BE90" s="3"/>
-    </row>
-    <row r="91" spans="41:57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="40:56" x14ac:dyDescent="0.2">
+      <c r="AN91" s="3"/>
       <c r="AO91" s="3"/>
       <c r="AP91" s="3"/>
       <c r="AQ91" s="3"/>
@@ -3681,9 +3700,9 @@
       <c r="BB91" s="3"/>
       <c r="BC91" s="3"/>
       <c r="BD91" s="3"/>
-      <c r="BE91" s="3"/>
-    </row>
-    <row r="92" spans="41:57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="40:56" x14ac:dyDescent="0.2">
+      <c r="AN92" s="3"/>
       <c r="AO92" s="3"/>
       <c r="AP92" s="3"/>
       <c r="AQ92" s="3"/>
@@ -3700,9 +3719,9 @@
       <c r="BB92" s="3"/>
       <c r="BC92" s="3"/>
       <c r="BD92" s="3"/>
-      <c r="BE92" s="3"/>
-    </row>
-    <row r="93" spans="41:57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="40:56" x14ac:dyDescent="0.2">
+      <c r="AN93" s="5"/>
       <c r="AO93" s="3"/>
       <c r="AP93" s="3"/>
       <c r="AQ93" s="3"/>
@@ -3718,10 +3737,10 @@
       <c r="BA93" s="3"/>
       <c r="BB93" s="3"/>
       <c r="BC93" s="3"/>
-      <c r="BD93" s="3"/>
-      <c r="BE93" s="3"/>
-    </row>
-    <row r="94" spans="41:57" x14ac:dyDescent="0.2">
+      <c r="BD93" s="5"/>
+    </row>
+    <row r="94" spans="40:56" x14ac:dyDescent="0.2">
+      <c r="AN94" s="5"/>
       <c r="AO94" s="5"/>
       <c r="AP94" s="3"/>
       <c r="AQ94" s="3"/>
@@ -3736,34 +3755,34 @@
       <c r="AZ94" s="3"/>
       <c r="BA94" s="3"/>
       <c r="BB94" s="3"/>
-      <c r="BC94" s="3"/>
-      <c r="BD94" s="3"/>
-      <c r="BE94" s="5"/>
-    </row>
-    <row r="95" spans="41:57" x14ac:dyDescent="0.2">
-      <c r="AO95" s="5"/>
-      <c r="AP95" s="5"/>
-      <c r="AQ95" s="3"/>
-      <c r="AR95" s="3"/>
-      <c r="AS95" s="3"/>
-      <c r="AT95" s="3"/>
-      <c r="AU95" s="3"/>
-      <c r="AV95" s="3"/>
-      <c r="AW95" s="3"/>
-      <c r="AX95" s="3"/>
-      <c r="AY95" s="3"/>
-      <c r="AZ95" s="3"/>
-      <c r="BA95" s="3"/>
-      <c r="BB95" s="3"/>
-      <c r="BC95" s="3"/>
-      <c r="BD95" s="5"/>
-      <c r="BE95" s="5"/>
-    </row>
-    <row r="96" spans="41:57" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" spans="41:57" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" spans="41:57" x14ac:dyDescent="0.2">
-      <c r="AO98" s="5"/>
-      <c r="AP98" s="5"/>
+      <c r="BC94" s="5"/>
+      <c r="BD94" s="5"/>
+    </row>
+    <row r="95" spans="40:56" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="40:56" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" spans="40:56" x14ac:dyDescent="0.2">
+      <c r="AN97" s="5"/>
+      <c r="AO97" s="5"/>
+      <c r="AP97" s="3"/>
+      <c r="AQ97" s="3"/>
+      <c r="AR97" s="3"/>
+      <c r="AS97" s="3"/>
+      <c r="AT97" s="3"/>
+      <c r="AU97" s="3"/>
+      <c r="AV97" s="3"/>
+      <c r="AW97" s="3"/>
+      <c r="AX97" s="3"/>
+      <c r="AY97" s="3"/>
+      <c r="AZ97" s="3"/>
+      <c r="BA97" s="3"/>
+      <c r="BB97" s="3"/>
+      <c r="BC97" s="5"/>
+      <c r="BD97" s="5"/>
+    </row>
+    <row r="98" spans="40:56" x14ac:dyDescent="0.2">
+      <c r="AN98" s="5"/>
+      <c r="AO98" s="3"/>
+      <c r="AP98" s="3"/>
       <c r="AQ98" s="3"/>
       <c r="AR98" s="3"/>
       <c r="AS98" s="3"/>
@@ -3778,10 +3797,10 @@
       <c r="BB98" s="3"/>
       <c r="BC98" s="3"/>
       <c r="BD98" s="5"/>
-      <c r="BE98" s="5"/>
-    </row>
-    <row r="99" spans="41:57" x14ac:dyDescent="0.2">
-      <c r="AO99" s="5"/>
+    </row>
+    <row r="99" spans="40:56" x14ac:dyDescent="0.2">
+      <c r="AN99" s="3"/>
+      <c r="AO99" s="3"/>
       <c r="AP99" s="3"/>
       <c r="AQ99" s="3"/>
       <c r="AR99" s="3"/>
@@ -3797,9 +3816,9 @@
       <c r="BB99" s="3"/>
       <c r="BC99" s="3"/>
       <c r="BD99" s="3"/>
-      <c r="BE99" s="5"/>
-    </row>
-    <row r="100" spans="41:57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="40:56" x14ac:dyDescent="0.2">
+      <c r="AN100" s="3"/>
       <c r="AO100" s="3"/>
       <c r="AP100" s="3"/>
       <c r="AQ100" s="3"/>
@@ -3816,9 +3835,9 @@
       <c r="BB100" s="3"/>
       <c r="BC100" s="3"/>
       <c r="BD100" s="3"/>
-      <c r="BE100" s="3"/>
-    </row>
-    <row r="101" spans="41:57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="40:56" x14ac:dyDescent="0.2">
+      <c r="AN101" s="3"/>
       <c r="AO101" s="3"/>
       <c r="AP101" s="3"/>
       <c r="AQ101" s="3"/>
@@ -3835,9 +3854,9 @@
       <c r="BB101" s="3"/>
       <c r="BC101" s="3"/>
       <c r="BD101" s="3"/>
-      <c r="BE101" s="3"/>
-    </row>
-    <row r="102" spans="41:57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="40:56" x14ac:dyDescent="0.2">
+      <c r="AN102" s="3"/>
       <c r="AO102" s="3"/>
       <c r="AP102" s="3"/>
       <c r="AQ102" s="3"/>
@@ -3854,9 +3873,9 @@
       <c r="BB102" s="3"/>
       <c r="BC102" s="3"/>
       <c r="BD102" s="3"/>
-      <c r="BE102" s="3"/>
-    </row>
-    <row r="103" spans="41:57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="40:56" x14ac:dyDescent="0.2">
+      <c r="AN103" s="3"/>
       <c r="AO103" s="3"/>
       <c r="AP103" s="3"/>
       <c r="AQ103" s="3"/>
@@ -3873,9 +3892,9 @@
       <c r="BB103" s="3"/>
       <c r="BC103" s="3"/>
       <c r="BD103" s="3"/>
-      <c r="BE103" s="3"/>
-    </row>
-    <row r="104" spans="41:57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="40:56" x14ac:dyDescent="0.2">
+      <c r="AN104" s="3"/>
       <c r="AO104" s="3"/>
       <c r="AP104" s="3"/>
       <c r="AQ104" s="3"/>
@@ -3892,9 +3911,9 @@
       <c r="BB104" s="3"/>
       <c r="BC104" s="3"/>
       <c r="BD104" s="3"/>
-      <c r="BE104" s="3"/>
-    </row>
-    <row r="105" spans="41:57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="40:56" x14ac:dyDescent="0.2">
+      <c r="AN105" s="3"/>
       <c r="AO105" s="3"/>
       <c r="AP105" s="3"/>
       <c r="AQ105" s="3"/>
@@ -3902,7 +3921,7 @@
       <c r="AS105" s="3"/>
       <c r="AT105" s="3"/>
       <c r="AU105" s="3"/>
-      <c r="AV105" s="3"/>
+      <c r="AV105" s="4"/>
       <c r="AW105" s="3"/>
       <c r="AX105" s="3"/>
       <c r="AY105" s="3"/>
@@ -3911,9 +3930,9 @@
       <c r="BB105" s="3"/>
       <c r="BC105" s="3"/>
       <c r="BD105" s="3"/>
-      <c r="BE105" s="3"/>
-    </row>
-    <row r="106" spans="41:57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="40:56" x14ac:dyDescent="0.2">
+      <c r="AN106" s="3"/>
       <c r="AO106" s="3"/>
       <c r="AP106" s="3"/>
       <c r="AQ106" s="3"/>
@@ -3922,7 +3941,7 @@
       <c r="AT106" s="3"/>
       <c r="AU106" s="3"/>
       <c r="AV106" s="3"/>
-      <c r="AW106" s="4"/>
+      <c r="AW106" s="3"/>
       <c r="AX106" s="3"/>
       <c r="AY106" s="3"/>
       <c r="AZ106" s="3"/>
@@ -3930,9 +3949,9 @@
       <c r="BB106" s="3"/>
       <c r="BC106" s="3"/>
       <c r="BD106" s="3"/>
-      <c r="BE106" s="3"/>
-    </row>
-    <row r="107" spans="41:57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="40:56" x14ac:dyDescent="0.2">
+      <c r="AN107" s="3"/>
       <c r="AO107" s="3"/>
       <c r="AP107" s="3"/>
       <c r="AQ107" s="3"/>
@@ -3949,9 +3968,9 @@
       <c r="BB107" s="3"/>
       <c r="BC107" s="3"/>
       <c r="BD107" s="3"/>
-      <c r="BE107" s="3"/>
-    </row>
-    <row r="108" spans="41:57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="40:56" x14ac:dyDescent="0.2">
+      <c r="AN108" s="3"/>
       <c r="AO108" s="3"/>
       <c r="AP108" s="3"/>
       <c r="AQ108" s="3"/>
@@ -3968,9 +3987,9 @@
       <c r="BB108" s="3"/>
       <c r="BC108" s="3"/>
       <c r="BD108" s="3"/>
-      <c r="BE108" s="3"/>
-    </row>
-    <row r="109" spans="41:57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="40:56" x14ac:dyDescent="0.2">
+      <c r="AN109" s="3"/>
       <c r="AO109" s="3"/>
       <c r="AP109" s="3"/>
       <c r="AQ109" s="3"/>
@@ -3987,9 +4006,9 @@
       <c r="BB109" s="3"/>
       <c r="BC109" s="3"/>
       <c r="BD109" s="3"/>
-      <c r="BE109" s="3"/>
-    </row>
-    <row r="110" spans="41:57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="40:56" x14ac:dyDescent="0.2">
+      <c r="AN110" s="3"/>
       <c r="AO110" s="3"/>
       <c r="AP110" s="3"/>
       <c r="AQ110" s="3"/>
@@ -4006,9 +4025,9 @@
       <c r="BB110" s="3"/>
       <c r="BC110" s="3"/>
       <c r="BD110" s="3"/>
-      <c r="BE110" s="3"/>
-    </row>
-    <row r="111" spans="41:57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="40:56" x14ac:dyDescent="0.2">
+      <c r="AN111" s="3"/>
       <c r="AO111" s="3"/>
       <c r="AP111" s="3"/>
       <c r="AQ111" s="3"/>
@@ -4025,9 +4044,9 @@
       <c r="BB111" s="3"/>
       <c r="BC111" s="3"/>
       <c r="BD111" s="3"/>
-      <c r="BE111" s="3"/>
-    </row>
-    <row r="112" spans="41:57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="40:56" x14ac:dyDescent="0.2">
+      <c r="AN112" s="5"/>
       <c r="AO112" s="3"/>
       <c r="AP112" s="3"/>
       <c r="AQ112" s="3"/>
@@ -4043,10 +4062,10 @@
       <c r="BA112" s="3"/>
       <c r="BB112" s="3"/>
       <c r="BC112" s="3"/>
-      <c r="BD112" s="3"/>
-      <c r="BE112" s="3"/>
-    </row>
-    <row r="113" spans="41:57" x14ac:dyDescent="0.2">
+      <c r="BD112" s="5"/>
+    </row>
+    <row r="113" spans="40:56" x14ac:dyDescent="0.2">
+      <c r="AN113" s="5"/>
       <c r="AO113" s="5"/>
       <c r="AP113" s="3"/>
       <c r="AQ113" s="3"/>
@@ -4061,28 +4080,8 @@
       <c r="AZ113" s="3"/>
       <c r="BA113" s="3"/>
       <c r="BB113" s="3"/>
-      <c r="BC113" s="3"/>
-      <c r="BD113" s="3"/>
-      <c r="BE113" s="5"/>
-    </row>
-    <row r="114" spans="41:57" x14ac:dyDescent="0.2">
-      <c r="AO114" s="5"/>
-      <c r="AP114" s="5"/>
-      <c r="AQ114" s="3"/>
-      <c r="AR114" s="3"/>
-      <c r="AS114" s="3"/>
-      <c r="AT114" s="3"/>
-      <c r="AU114" s="3"/>
-      <c r="AV114" s="3"/>
-      <c r="AW114" s="3"/>
-      <c r="AX114" s="3"/>
-      <c r="AY114" s="3"/>
-      <c r="AZ114" s="3"/>
-      <c r="BA114" s="3"/>
-      <c r="BB114" s="3"/>
-      <c r="BC114" s="3"/>
-      <c r="BD114" s="5"/>
-      <c r="BE114" s="5"/>
+      <c r="BC113" s="5"/>
+      <c r="BD113" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/design/游戏设计.xlsx
+++ b/design/游戏设计.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SRC\.NET-WorkSpace\RussianBLock\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB0A92C-BE99-43FF-B651-60DE95006EE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB26F73F-D1FE-4A94-89E8-4087833A7BAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="像素设计" sheetId="1" r:id="rId1"/>
+    <sheet name="砖块形状" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +43,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -64,6 +65,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -95,13 +126,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -384,7 +421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CP113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AW7" sqref="AW7"/>
     </sheetView>
   </sheetViews>
@@ -4088,4 +4125,70 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D05BD2-B3D0-43A9-BC78-2A30DA5A62CF}">
+  <dimension ref="B2:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="2.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D7" s="6"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/design/游戏设计.xlsx
+++ b/design/游戏设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SRC\.NET-WorkSpace\RussianBLock\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB26F73F-D1FE-4A94-89E8-4087833A7BAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103A320A-2068-4E1D-8208-4F7A3FBDF8D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,15 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="1">
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4141,7 +4150,9 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
@@ -4149,25 +4160,33 @@
       <c r="C3" s="4"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D7" s="6"/>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>0</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="H8" s="8"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>0</v>
+      </c>
       <c r="C10" s="9"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -4175,11 +4194,15 @@
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="H11" s="3"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C13" s="11"/>
+      <c r="C13" s="11" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>

--- a/design/游戏设计.xlsx
+++ b/design/游戏设计.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SRC\.NET-WorkSpace\RussianBLock\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103A320A-2068-4E1D-8208-4F7A3FBDF8D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D71BEE-767F-4E33-B7F0-C5DDD63F4FBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="像素设计" sheetId="1" r:id="rId1"/>
     <sheet name="砖块形状" sheetId="2" r:id="rId2"/>
+    <sheet name="砖块旋转" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,9 +27,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="4">
   <si>
     <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -108,7 +121,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -131,11 +144,153 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -148,6 +303,25 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4140,8 +4314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D05BD2-B3D0-43A9-BC78-2A30DA5A62CF}">
   <dimension ref="B2:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4153,51 +4327,87 @@
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="G7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="H8" s="8"/>
+      <c r="C8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="C10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="C11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="G11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C13" s="11" t="s">
@@ -4205,9 +4415,301 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="B14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B7014E-E05E-4276-A9CE-DD98EDD4583F}">
+  <dimension ref="A2:U19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="2.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="19"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" s="15"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="12"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" s="5"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="12"/>
+    </row>
+    <row r="8" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21"/>
+      <c r="B8" s="13"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="13"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T8" s="21"/>
+      <c r="U8" s="13"/>
+    </row>
+    <row r="9" spans="1:21" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="S9" s="17"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="13"/>
+    </row>
+    <row r="10" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="K11" s="16"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B15" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C16" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C18" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/design/游戏设计.xlsx
+++ b/design/游戏设计.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SRC\.NET-WorkSpace\RussianBLock\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D71BEE-767F-4E33-B7F0-C5DDD63F4FBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15F59D9-66FA-4F9F-87A6-84E3880CC244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="像素设计" sheetId="1" r:id="rId1"/>
     <sheet name="砖块形状" sheetId="2" r:id="rId2"/>
     <sheet name="砖块旋转" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -4436,8 +4437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B7014E-E05E-4276-A9CE-DD98EDD4583F}">
   <dimension ref="A2:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView topLeftCell="A4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4716,4 +4717,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23F077E-CBAB-4458-834E-F24675CE57BE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/design/游戏设计.xlsx
+++ b/design/游戏设计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SRC\.NET-WorkSpace\RussianBLock\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15F59D9-66FA-4F9F-87A6-84E3880CC244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAD9F80-16E8-4C0B-AEB2-B0737F14897C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="像素设计" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="4">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -304,7 +304,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -4435,10 +4434,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B7014E-E05E-4276-A9CE-DD98EDD4583F}">
-  <dimension ref="A2:U19"/>
+  <dimension ref="A2:Y19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4446,7 +4445,7 @@
     <col min="1" max="16384" width="2.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -4460,7 +4459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -4474,62 +4473,69 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+    <row r="5" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="26" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="18"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="26" t="s">
+      <c r="I6" s="14"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="S6" s="15"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="12"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20" t="s">
+      <c r="S6" s="14"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="22"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -4538,18 +4544,18 @@
       <c r="D7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="13"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="7" t="s">
         <v>1</v>
       </c>
       <c r="I7" s="5"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="20" t="s">
+      <c r="J7" s="20"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="7" t="s">
@@ -4558,88 +4564,106 @@
       <c r="N7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="O7" s="24" t="s">
+      <c r="O7" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="13"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="12"/>
       <c r="R7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="S7" s="5"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="12"/>
-    </row>
-    <row r="8" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="13"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="13"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="20"/>
+      <c r="B8" s="12"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="13"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="13"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="12"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="12"/>
       <c r="R8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="T8" s="21"/>
-      <c r="U8" s="13"/>
-    </row>
-    <row r="9" spans="1:21" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="30" t="s">
+      <c r="T8" s="20"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="12"/>
+      <c r="Y8" s="20"/>
+    </row>
+    <row r="9" spans="1:25" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="30" t="s">
+      <c r="I9" s="16"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S9" s="17"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="13"/>
-    </row>
-    <row r="10" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="S9" s="16"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="24"/>
+    </row>
+    <row r="10" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D12" s="6" t="s">
         <v>3</v>
       </c>
@@ -4652,9 +4676,9 @@
       <c r="H12" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K12" s="15"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>0</v>
       </c>
@@ -4668,7 +4692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
         <v>0</v>
       </c>
@@ -4682,7 +4706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C16" s="9" t="s">
         <v>2</v>
       </c>
@@ -4723,7 +4747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23F077E-CBAB-4458-834E-F24675CE57BE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/design/游戏设计.xlsx
+++ b/design/游戏设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SRC\.NET-WorkSpace\RussianBLock\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAD9F80-16E8-4C0B-AEB2-B0737F14897C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390B4247-1D29-437C-AEA8-9F47BA9C77EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +60,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -122,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -287,11 +296,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -322,6 +344,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -337,6 +361,471 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>162622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>60402</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="对话气泡: 圆角矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14BF2E8C-1944-4DD1-A66C-3120314FF10E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="608671" y="1812073"/>
+          <a:ext cx="645841" cy="260195"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -31624"/>
+            <a:gd name="adj2" fmla="val -95247"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>形态</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>88281</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>106866</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="对话气泡: 圆角矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3609418E-6F87-4EA9-A482-DFC802DD1493}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1760964" y="1839951"/>
+          <a:ext cx="645841" cy="260195"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -31624"/>
+            <a:gd name="adj2" fmla="val -95247"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>形态</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>18585</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>78988</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="对话气泡: 圆角矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E128AFB3-DD95-4B33-AEA4-AE7565BFD6B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2718110" y="1830659"/>
+          <a:ext cx="645841" cy="260195"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -31624"/>
+            <a:gd name="adj2" fmla="val -95247"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>形态</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>185855</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>204440</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>78988</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="对话气泡: 圆角矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59F5EA6A-BD23-47C6-960D-2AED3E4FB1A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3740306" y="1830659"/>
+          <a:ext cx="645841" cy="260195"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -31624"/>
+            <a:gd name="adj2" fmla="val -95247"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>形态</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>D</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>209085</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>18584</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>78988</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="对话气泡: 圆角矩形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D3A243B-8963-45E0-A013-A7F96DC2DE3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4808963" y="1830659"/>
+          <a:ext cx="645841" cy="260195"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -31624"/>
+            <a:gd name="adj2" fmla="val -95247"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>形态</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4434,10 +4923,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B7014E-E05E-4276-A9CE-DD98EDD4583F}">
-  <dimension ref="A2:Y19"/>
+  <dimension ref="A2:Y24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4660,79 +5149,138 @@
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="D12" s="6" t="s">
+    <row r="11" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+    </row>
+    <row r="12" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+    </row>
+    <row r="13" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F15" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G15" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H16" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B15" s="9" t="s">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C16" s="9" t="s">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C19" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C18" s="11" t="s">
+    <row r="20" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C23" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="10" t="s">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D24" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4740,6 +5288,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/design/游戏设计.xlsx
+++ b/design/游戏设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SRC\.NET-WorkSpace\RussianBLock\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390B4247-1D29-437C-AEA8-9F47BA9C77EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8A4B2F-1A89-49D7-AEF4-44FF02322E2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="4">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -177,21 +177,6 @@
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -309,11 +294,108 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -329,23 +411,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -825,6 +923,926 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>27878</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>69696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>46463</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>148683</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="对话气泡: 圆角矩形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{449219C0-B429-41E0-A66C-4E63CD90F82C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="446049" y="3368598"/>
+          <a:ext cx="645841" cy="260195"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -31624"/>
+            <a:gd name="adj2" fmla="val -95247"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>形态</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>162622</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>55757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>181207</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>134744</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="对话气泡: 圆角矩形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B73B0A-2906-4166-8844-1EDE372D0E1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1626220" y="3354659"/>
+          <a:ext cx="645841" cy="260195"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -31624"/>
+            <a:gd name="adj2" fmla="val -95247"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>形态</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>139391</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>65049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>157976</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>144036</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="对话气泡: 圆角矩形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF14B3EE-7620-4DD7-A0BD-1974E3150A5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2648415" y="3363951"/>
+          <a:ext cx="645841" cy="260195"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -31624"/>
+            <a:gd name="adj2" fmla="val -95247"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>形态</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>27878</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>74343</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>46463</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>153330</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="对话气泡: 圆角矩形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A5B9789-04AD-4F7C-B341-E173CFB3CB3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3791415" y="3373245"/>
+          <a:ext cx="645841" cy="260195"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -31624"/>
+            <a:gd name="adj2" fmla="val -95247"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>形态</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>D</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>195146</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>23232</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>4645</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>102219</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="对话气泡: 圆角矩形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20594A57-3AE7-4E37-B58C-90256D183143}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4795024" y="3322134"/>
+          <a:ext cx="645841" cy="260195"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -31624"/>
+            <a:gd name="adj2" fmla="val -95247"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>形态</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>18585</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>167268</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>37170</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>65049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="对话气泡: 圆角矩形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB4D07C5-0AF2-47E6-B3EE-FB54C975ED12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="436756" y="6746488"/>
+          <a:ext cx="645841" cy="260195"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -31624"/>
+            <a:gd name="adj2" fmla="val -95247"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>形态</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>18585</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>78988</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="对话气泡: 圆角矩形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76C45C99-65EC-41CC-856A-AC1D726A075B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1463598" y="6760427"/>
+          <a:ext cx="645841" cy="260195"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -31624"/>
+            <a:gd name="adj2" fmla="val -95247"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>形态</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209085</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>18585</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>78988</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="对话气泡: 圆角矩形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB58163C-E4FE-4207-9DC1-26405FD95DD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2509024" y="6760427"/>
+          <a:ext cx="645841" cy="260195"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -31624"/>
+            <a:gd name="adj2" fmla="val -95247"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>形态</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>18585</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>78988</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="对话气泡: 圆角矩形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{303C15DC-C630-4090-AC5E-591CE7ACDB97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3554451" y="6760427"/>
+          <a:ext cx="645841" cy="260195"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -31624"/>
+            <a:gd name="adj2" fmla="val -95247"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>形态</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>D</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>18585</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>78988</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="对话气泡: 圆角矩形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FD81C9B-320D-46BB-85FF-F5D2EB0518CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4599878" y="6760427"/>
+          <a:ext cx="645841" cy="260195"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -31624"/>
+            <a:gd name="adj2" fmla="val -95247"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>形态</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4923,10 +5941,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B7014E-E05E-4276-A9CE-DD98EDD4583F}">
-  <dimension ref="A2:Y24"/>
+  <dimension ref="A2:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="W38" sqref="W38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4970,61 +5988,61 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="25" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="24" t="s">
         <v>0</v>
       </c>
       <c r="I6" s="14"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="17"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="16"/>
       <c r="M6" s="13"/>
       <c r="N6" s="14"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="25" t="s">
+      <c r="O6" s="21"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="24" t="s">
         <v>3</v>
       </c>
       <c r="S6" s="14"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="17"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="16"/>
       <c r="W6" s="14"/>
       <c r="X6" s="14"/>
-      <c r="Y6" s="22"/>
+      <c r="Y6" s="21"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -5033,18 +6051,18 @@
       <c r="D7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="27"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="12"/>
       <c r="H7" s="7" t="s">
         <v>1</v>
       </c>
       <c r="I7" s="5"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="19" t="s">
+      <c r="J7" s="19"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="18" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="7" t="s">
@@ -5053,18 +6071,18 @@
       <c r="N7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="O7" s="23" t="s">
+      <c r="O7" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="P7" s="27"/>
+      <c r="P7" s="26"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="S7" s="5"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="19" t="s">
+      <c r="T7" s="19"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="18" t="s">
         <v>0</v>
       </c>
       <c r="W7" s="7" t="s">
@@ -5073,63 +6091,63 @@
       <c r="X7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Y7" s="23" t="s">
+      <c r="Y7" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="12"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="28"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="12"/>
       <c r="H8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="28"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="27"/>
       <c r="L8" s="12"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="28"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="27"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="T8" s="20"/>
-      <c r="U8" s="28"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="27"/>
       <c r="V8" s="12"/>
-      <c r="Y8" s="20"/>
+      <c r="Y8" s="19"/>
     </row>
     <row r="9" spans="1:25" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="29" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="29" t="s">
+      <c r="I9" s="15"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="S9" s="16"/>
-      <c r="T9" s="24"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="23"/>
       <c r="U9" s="12"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="24"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="23"/>
     </row>
     <row r="10" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13"/>
@@ -5158,10 +6176,10 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="30"/>
+      <c r="K11" s="29"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
-      <c r="N11" s="31"/>
+      <c r="N11" s="30"/>
       <c r="O11" s="13"/>
       <c r="Q11" s="13"/>
       <c r="R11" s="13"/>
@@ -5177,7 +6195,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="30"/>
+      <c r="K12" s="29"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
@@ -5187,45 +6205,101 @@
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
     </row>
-    <row r="13" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
+    <row r="13" spans="1:25" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
       <c r="J13" s="13"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
       <c r="O13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
       <c r="T13" s="13"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="K14" s="15"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="21"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="32"/>
       <c r="D15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="E15" s="17"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O15" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="8" t="s">
+      <c r="P15" s="26"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K15" s="14"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="32"/>
+      <c r="X15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y15" s="17"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -5234,55 +6308,327 @@
       <c r="D16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="E16" s="17"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="9" t="s">
+      <c r="J16" s="17"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T16" s="17"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="W16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="X16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="Y16" s="17"/>
+    </row>
+    <row r="17" spans="1:25" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="23"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="23"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="T17" s="23"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="23"/>
+    </row>
+    <row r="18" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C19" s="9" t="s">
+    <row r="25" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B29" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="I29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="3" t="s">
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C30" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C23" s="11" t="s">
+    <row r="31" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:25" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A33" s="31"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="40"/>
+      <c r="X33" s="40"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="32"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A34" s="31"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="10" t="s">
+      <c r="E34" s="17"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="J34" s="17"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="41"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="T34" s="17"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="41"/>
+      <c r="W34" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="32"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A35" s="31"/>
+      <c r="B35" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D35" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" s="17"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O35" s="17"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="R35" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="T35" s="17"/>
+      <c r="U35" s="45"/>
+      <c r="V35" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="W35" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="X35" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="32"/>
+    </row>
+    <row r="36" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="31"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36" s="25"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="N36" s="25"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="S36" s="25"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="45"/>
+      <c r="V36" s="43"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="44"/>
+      <c r="Z36" s="32"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/design/游戏设计.xlsx
+++ b/design/游戏设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SRC\.NET-WorkSpace\RussianBLock\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8A4B2F-1A89-49D7-AEF4-44FF02322E2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3501433-4D37-4824-B2A7-676089FD764E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5943,13 +5943,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B7014E-E05E-4276-A9CE-DD98EDD4583F}">
   <dimension ref="A2:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="W38" sqref="W38"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="2.75" style="1"/>
+    <col min="1" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">

--- a/design/游戏设计.xlsx
+++ b/design/游戏设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SRC\.NET-WorkSpace\RussianBLock\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3501433-4D37-4824-B2A7-676089FD764E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5203F0-E499-4F28-A4FA-BD11346668C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="4">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -395,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -444,6 +444,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1387,13 +1397,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>18585</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>167268</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>37170</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>65049</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1479,13 +1489,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>18585</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>78988</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1571,13 +1581,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>209085</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>18585</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>78988</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1663,13 +1673,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>18585</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>78988</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1755,13 +1765,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>18585</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>78988</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1779,6 +1789,466 @@
         <a:xfrm>
           <a:off x="4599878" y="6760427"/>
           <a:ext cx="645841" cy="260195"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -31624"/>
+            <a:gd name="adj2" fmla="val -95247"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>形态</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>37170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>18586</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>116157</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="对话气泡: 圆角矩形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{657F5312-4228-4273-8B93-7856727D8177}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="399586" y="4804316"/>
+          <a:ext cx="617963" cy="260195"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -31624"/>
+            <a:gd name="adj2" fmla="val -95247"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>形态</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>97573</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>27879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>116158</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>106866</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="对话气泡: 圆角矩形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FFA368C-EED2-4D29-93D8-BCFDA19EA0B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1496122" y="4795025"/>
+          <a:ext cx="617963" cy="260195"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -31624"/>
+            <a:gd name="adj2" fmla="val -95247"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>形态</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171915</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>32524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>111511</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="对话气泡: 圆角矩形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2610F720-059E-4217-B1EA-6873A59E7110}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2569427" y="4799670"/>
+          <a:ext cx="617963" cy="260195"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -31624"/>
+            <a:gd name="adj2" fmla="val -95247"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>形态</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>51110</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>32526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>69695</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>111513</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="对话气泡: 圆角矩形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FB7B4D1-7ECF-407D-B5B1-B4B25D9ACB08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3647378" y="4799672"/>
+          <a:ext cx="617963" cy="260195"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -31624"/>
+            <a:gd name="adj2" fmla="val -95247"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>形态</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>D</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>162622</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>18585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>171914</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>97572</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="对话气泡: 圆角矩形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD7337BA-07B5-49BD-A2E5-560DF5F09D9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4558061" y="4785731"/>
+          <a:ext cx="608670" cy="260195"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -5941,10 +6411,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B7014E-E05E-4276-A9CE-DD98EDD4583F}">
-  <dimension ref="A2:Z37"/>
+  <dimension ref="A2:Z51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6388,15 +6858,46 @@
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
     </row>
-    <row r="21" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:25" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+    </row>
+    <row r="22" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="19"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="48"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="48"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="48"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="48"/>
+    </row>
     <row r="23" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="8" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="50" t="s">
         <v>0</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -6405,230 +6906,569 @@
       <c r="D23" s="8" t="s">
         <v>2</v>
       </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="53"/>
+      <c r="I23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="19"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="19"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" s="19"/>
+      <c r="V23" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="W23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="X23" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y23" s="19"/>
     </row>
     <row r="24" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="1"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="1"/>
       <c r="D24" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="19"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O24" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="T24" s="19"/>
+      <c r="V24" s="53"/>
+      <c r="X24" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y24" s="19"/>
+    </row>
+    <row r="25" spans="1:25" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="23"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="S25" s="15"/>
+      <c r="T25" s="23"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="23"/>
+    </row>
+    <row r="26" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+    </row>
     <row r="27" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B29" s="9" t="s">
+    <row r="28" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B32" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C32" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H29" s="3" t="s">
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C33" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="D33" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C30" s="9" t="s">
+    <row r="34" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+    </row>
+    <row r="36" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+    </row>
+    <row r="37" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+    </row>
+    <row r="38" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="29"/>
+    </row>
+    <row r="39" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="29"/>
+    </row>
+    <row r="40" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="1"/>
+      <c r="C40" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D40" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="E40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="29"/>
+      <c r="V40" s="29"/>
+      <c r="W40" s="29"/>
+      <c r="X40" s="29"/>
+      <c r="Y40" s="29"/>
+    </row>
+    <row r="41" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:25" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="29"/>
-      <c r="X32" s="29"/>
-      <c r="Y32" s="29"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A33" s="31"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="45"/>
-      <c r="V33" s="39"/>
-      <c r="W33" s="40"/>
-      <c r="X33" s="40"/>
-      <c r="Y33" s="21"/>
-      <c r="Z33" s="32"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="11" t="s">
+      <c r="D41" s="1"/>
+      <c r="E41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="29"/>
+      <c r="V41" s="29"/>
+      <c r="W41" s="29"/>
+      <c r="X41" s="29"/>
+      <c r="Y41" s="29"/>
+    </row>
+    <row r="42" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="29"/>
+      <c r="X42" s="29"/>
+      <c r="Y42" s="29"/>
+    </row>
+    <row r="43" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="29"/>
+      <c r="X43" s="29"/>
+      <c r="Y43" s="29"/>
+    </row>
+    <row r="44" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="29"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
+      <c r="X44" s="29"/>
+      <c r="Y44" s="29"/>
+    </row>
+    <row r="45" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="29"/>
+      <c r="T45" s="29"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="29"/>
+      <c r="X45" s="29"/>
+      <c r="Y45" s="29"/>
+    </row>
+    <row r="46" spans="1:26" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="29"/>
+      <c r="T46" s="29"/>
+      <c r="V46" s="29"/>
+      <c r="W46" s="29"/>
+      <c r="X46" s="29"/>
+      <c r="Y46" s="29"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A47" s="31"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="45"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="40"/>
+      <c r="S47" s="40"/>
+      <c r="T47" s="21"/>
+      <c r="U47" s="45"/>
+      <c r="V47" s="39"/>
+      <c r="W47" s="40"/>
+      <c r="X47" s="40"/>
+      <c r="Y47" s="21"/>
+      <c r="Z47" s="32"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A48" s="31"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="11" t="s">
+      <c r="E48" s="17"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="J34" s="17"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="41"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="11" t="s">
+      <c r="J48" s="17"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="41"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="45"/>
+      <c r="Q48" s="41"/>
+      <c r="R48" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="T34" s="17"/>
-      <c r="U34" s="45"/>
-      <c r="V34" s="41"/>
-      <c r="W34" s="11" t="s">
+      <c r="T48" s="17"/>
+      <c r="U48" s="45"/>
+      <c r="V48" s="41"/>
+      <c r="W48" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="Y34" s="17"/>
-      <c r="Z34" s="32"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
-      <c r="B35" s="42" t="s">
+      <c r="Y48" s="17"/>
+      <c r="Z48" s="32"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A49" s="31"/>
+      <c r="B49" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D49" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="11" t="s">
+      <c r="E49" s="17"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I35" s="11" t="s">
+      <c r="I49" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="J35" s="17"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="47" t="s">
+      <c r="J49" s="17"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="11" t="s">
+      <c r="M49" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="N35" s="11" t="s">
+      <c r="N49" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="O35" s="17"/>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="47" t="s">
+      <c r="O49" s="17"/>
+      <c r="P49" s="45"/>
+      <c r="Q49" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="R35" s="11" t="s">
+      <c r="R49" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="T35" s="17"/>
-      <c r="U35" s="45"/>
-      <c r="V35" s="42" t="s">
+      <c r="T49" s="17"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="W35" s="10" t="s">
+      <c r="W49" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="X35" s="10" t="s">
+      <c r="X49" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="32"/>
-    </row>
-    <row r="36" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="46" t="s">
+      <c r="Y49" s="17"/>
+      <c r="Z49" s="32"/>
+    </row>
+    <row r="50" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="31"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="I36" s="25"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="46" t="s">
+      <c r="I50" s="25"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="N36" s="25"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="46" t="s">
+      <c r="N50" s="25"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="45"/>
+      <c r="Q50" s="43"/>
+      <c r="R50" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="S36" s="25"/>
-      <c r="T36" s="44"/>
-      <c r="U36" s="45"/>
-      <c r="V36" s="43"/>
-      <c r="W36" s="25"/>
-      <c r="X36" s="25"/>
-      <c r="Y36" s="44"/>
-      <c r="Z36" s="32"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="14"/>
-      <c r="T37" s="14"/>
-      <c r="V37" s="14"/>
-      <c r="W37" s="14"/>
-      <c r="X37" s="14"/>
-      <c r="Y37" s="14"/>
+      <c r="S50" s="25"/>
+      <c r="T50" s="44"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="25"/>
+      <c r="X50" s="25"/>
+      <c r="Y50" s="44"/>
+      <c r="Z50" s="32"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="14"/>
+      <c r="V51" s="14"/>
+      <c r="W51" s="14"/>
+      <c r="X51" s="14"/>
+      <c r="Y51" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/design/游戏设计.xlsx
+++ b/design/游戏设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SRC\.NET-WorkSpace\RussianBLock\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5203F0-E499-4F28-A4FA-BD11346668C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE3DBC9-5722-4834-8C14-6F4B6FDEDC2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="4">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -391,11 +391,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -454,6 +530,25 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2313,6 +2408,926 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>46464</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>37169</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>65049</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>116157</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="对话气泡: 圆角矩形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{579AF541-4D7D-4258-B13B-ABAA3E5547AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="446049" y="6453767"/>
+          <a:ext cx="617963" cy="260195"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -31624"/>
+            <a:gd name="adj2" fmla="val -95247"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>形态</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>55756</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>46464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>74341</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>125452</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="对话气泡: 圆角矩形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50B61083-FD4E-4CE9-A59A-1989BF9132C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1454305" y="6463062"/>
+          <a:ext cx="617963" cy="260195"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -31624"/>
+            <a:gd name="adj2" fmla="val -95247"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>形态</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>37171</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>41816</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>55756</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>120804</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="对话气泡: 圆角矩形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2C54BD1-EEC5-4931-AD53-2EC150E70522}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2434683" y="6458414"/>
+          <a:ext cx="617963" cy="260195"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -31624"/>
+            <a:gd name="adj2" fmla="val -95247"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>形态</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>46463</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>23233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>65048</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>102221</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="对话气泡: 圆角矩形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA069C89-0973-4120-90E1-74952F8BB442}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3442939" y="6439831"/>
+          <a:ext cx="617963" cy="260195"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -31624"/>
+            <a:gd name="adj2" fmla="val -95247"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>形态</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>D</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>102220</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>181207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>111512</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>78987</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="对话气泡: 圆角矩形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04D0F28E-8FC7-42A3-B8B2-F9FDC32455CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4497659" y="6416597"/>
+          <a:ext cx="608670" cy="260195"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -31624"/>
+            <a:gd name="adj2" fmla="val -95247"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>形态</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>51110</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>162621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>69695</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>60401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="对话气泡: 圆角矩形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11D6820F-9468-48E8-866A-501E5C8F53CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="450695" y="7866255"/>
+          <a:ext cx="617963" cy="260195"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -31624"/>
+            <a:gd name="adj2" fmla="val -95247"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>形态</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88280</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>4648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>106865</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>83635</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="对话气泡: 圆角矩形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CD695B3-D242-4AAD-A431-ADDCAD23633D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1486829" y="7889489"/>
+          <a:ext cx="617963" cy="260195"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -31624"/>
+            <a:gd name="adj2" fmla="val -95247"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>形态</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>60403</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>176560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>78988</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>74340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="对话气泡: 圆角矩形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8848B6C3-A0AD-4A54-BEBB-D154D3FBF3C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2457915" y="7880194"/>
+          <a:ext cx="617963" cy="260195"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -31624"/>
+            <a:gd name="adj2" fmla="val -95247"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>形态</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>176563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>18585</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>74343</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="对话气泡: 圆角矩形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FE7D1D0-BDDA-4AA5-B7F9-DFCC51E3A881}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3396476" y="7880197"/>
+          <a:ext cx="617963" cy="260195"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -31624"/>
+            <a:gd name="adj2" fmla="val -95247"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>形态</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>D</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>162622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9292</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>60402</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="对话气泡: 圆角矩形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF6AF514-86B1-4873-8C3F-57424098CE60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4395439" y="7866256"/>
+          <a:ext cx="608670" cy="260195"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -31624"/>
+            <a:gd name="adj2" fmla="val -95247"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>形态</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6413,8 +7428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B7014E-E05E-4276-A9CE-DD98EDD4583F}">
   <dimension ref="A2:Z51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="X40" sqref="X40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6814,7 +7829,7 @@
       </c>
       <c r="Y16" s="17"/>
     </row>
-    <row r="17" spans="1:25" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
       <c r="C17" s="15"/>
@@ -6840,25 +7855,25 @@
       <c r="X17" s="15"/>
       <c r="Y17" s="23"/>
     </row>
-    <row r="18" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
     </row>
-    <row r="19" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
     </row>
-    <row r="20" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
     </row>
-    <row r="21" spans="1:25" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -6868,7 +7883,7 @@
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
     </row>
-    <row r="22" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="49"/>
       <c r="C22" s="13"/>
@@ -6895,7 +7910,7 @@
       <c r="X22" s="52"/>
       <c r="Y22" s="48"/>
     </row>
-    <row r="23" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="50" t="s">
         <v>0</v>
@@ -6938,7 +7953,7 @@
       </c>
       <c r="Y23" s="19"/>
     </row>
-    <row r="24" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24" s="32"/>
       <c r="C24" s="1"/>
@@ -6977,7 +7992,7 @@
       </c>
       <c r="Y24" s="19"/>
     </row>
-    <row r="25" spans="1:25" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="20"/>
       <c r="C25" s="15"/>
@@ -7004,7 +8019,7 @@
       <c r="X25" s="15"/>
       <c r="Y25" s="23"/>
     </row>
-    <row r="26" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -7014,48 +8029,201 @@
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
     </row>
-    <row r="27" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B32" s="9" t="s">
+    <row r="27" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:26" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="T31" s="21"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="40"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="32"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A32" s="17"/>
+      <c r="B32" s="58" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>1</v>
       </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="41"/>
+      <c r="I32" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="17"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="O32" s="19"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="S32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="T32" s="17"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="W32" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="32"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A33" s="17"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" s="17"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O33" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="S33" s="5"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="41"/>
+      <c r="W33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="X33" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="32"/>
+    </row>
+    <row r="34" spans="1:26" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" s="15"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="60"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="12"/>
+    </row>
     <row r="35" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="29"/>
-      <c r="X35" s="29"/>
-      <c r="Y35" s="29"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
     </row>
     <row r="36" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="29"/>
@@ -7101,7 +8269,7 @@
       <c r="X37" s="29"/>
       <c r="Y37" s="29"/>
     </row>
-    <row r="38" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
@@ -7124,122 +8292,178 @@
       <c r="Y38" s="29"/>
     </row>
     <row r="39" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="29"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="29"/>
-      <c r="X39" s="29"/>
-      <c r="Y39" s="29"/>
+      <c r="A39" s="61"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="63"/>
+      <c r="N39" s="63"/>
+      <c r="O39" s="64"/>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="62"/>
+      <c r="R39" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="S39" s="63"/>
+      <c r="T39" s="64"/>
+      <c r="U39" s="60"/>
+      <c r="V39" s="62"/>
+      <c r="W39" s="63"/>
+      <c r="X39" s="63"/>
+      <c r="Y39" s="64"/>
+      <c r="Z39" s="12"/>
     </row>
     <row r="40" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="1"/>
+      <c r="A40" s="61"/>
+      <c r="B40" s="41"/>
       <c r="C40" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="70" t="s">
+        <v>0</v>
+      </c>
       <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="L40" s="29"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="67"/>
       <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="29"/>
-      <c r="V40" s="29"/>
-      <c r="W40" s="29"/>
-      <c r="X40" s="29"/>
-      <c r="Y40" s="29"/>
+      <c r="N40" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="O40" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="67"/>
+      <c r="R40" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="S40" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="T40" s="65"/>
+      <c r="U40" s="60"/>
+      <c r="V40" s="67"/>
+      <c r="W40" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="X40" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y40" s="65"/>
+      <c r="Z40" s="12"/>
     </row>
     <row r="41" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="3" t="s">
+      <c r="A41" s="61"/>
+      <c r="B41" s="66" t="s">
         <v>0</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="Q41" s="29"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="J41" s="65"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="67"/>
+      <c r="M41" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="O41" s="65"/>
+      <c r="P41" s="60"/>
+      <c r="Q41" s="67"/>
       <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="29"/>
+      <c r="S41" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="T41" s="65"/>
+      <c r="U41" s="60"/>
+      <c r="V41" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="W41" s="70" t="s">
+        <v>1</v>
+      </c>
       <c r="X41" s="29"/>
-      <c r="Y41" s="29"/>
-    </row>
-    <row r="42" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="29"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="29"/>
-      <c r="X42" s="29"/>
-      <c r="Y42" s="29"/>
+      <c r="Y41" s="65"/>
+      <c r="Z41" s="12"/>
+    </row>
+    <row r="42" spans="1:26" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="61"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="23"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="23"/>
+      <c r="U42" s="60"/>
+      <c r="V42" s="20"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="15"/>
+      <c r="Y42" s="23"/>
+      <c r="Z42" s="12"/>
     </row>
     <row r="43" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="29"/>
-      <c r="V43" s="29"/>
-      <c r="W43" s="29"/>
-      <c r="X43" s="29"/>
-      <c r="Y43" s="29"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
+      <c r="N43" s="59"/>
+      <c r="O43" s="59"/>
+      <c r="Q43" s="59"/>
+      <c r="R43" s="59"/>
+      <c r="S43" s="59"/>
+      <c r="T43" s="59"/>
+      <c r="V43" s="59"/>
+      <c r="W43" s="59"/>
+      <c r="X43" s="59"/>
+      <c r="Y43" s="59"/>
     </row>
     <row r="44" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="29"/>

--- a/design/游戏设计.xlsx
+++ b/design/游戏设计.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SRC\.NET-WorkSpace\RussianBLock\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE3DBC9-5722-4834-8C14-6F4B6FDEDC2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DE069D-A9B0-48D4-A58C-804A5B54B1AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="像素设计" sheetId="1" r:id="rId1"/>
     <sheet name="砖块形状" sheetId="2" r:id="rId2"/>
     <sheet name="砖块旋转" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
+    <sheet name="下一个砖块" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -131,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -467,11 +467,198 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -549,6 +736,26 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7428,7 +7635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B7014E-E05E-4276-A9CE-DD98EDD4583F}">
   <dimension ref="A2:Z51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="X40" sqref="X40"/>
     </sheetView>
   </sheetViews>
@@ -8704,14 +8911,244 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23F077E-CBAB-4458-834E-F24675CE57BE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AE14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="2.625" style="77"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A2" s="79"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="85"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="85"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A3" s="79"/>
+      <c r="B3" s="86"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="86"/>
+      <c r="O3" s="87"/>
+      <c r="R3" s="86"/>
+      <c r="U3" s="92"/>
+      <c r="W3" s="87"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A4" s="79"/>
+      <c r="B4" s="86"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="87"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="W4" s="87"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A5" s="79"/>
+      <c r="B5" s="86"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="86"/>
+      <c r="O5" s="87"/>
+      <c r="R5" s="86"/>
+      <c r="W5" s="87"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A6" s="79"/>
+      <c r="B6" s="86"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="86"/>
+      <c r="O6" s="87"/>
+      <c r="R6" s="86"/>
+      <c r="W6" s="87"/>
+    </row>
+    <row r="7" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="79"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="90"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="89"/>
+      <c r="T7" s="89"/>
+      <c r="U7" s="89"/>
+      <c r="V7" s="89"/>
+      <c r="W7" s="90"/>
+    </row>
+    <row r="8" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B9" s="83"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="85"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="85"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="84"/>
+      <c r="T9" s="84"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="85"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="84"/>
+      <c r="AB9" s="84"/>
+      <c r="AC9" s="84"/>
+      <c r="AD9" s="84"/>
+      <c r="AE9" s="85"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B10" s="86"/>
+      <c r="G10" s="87"/>
+      <c r="J10" s="86"/>
+      <c r="O10" s="87"/>
+      <c r="R10" s="86"/>
+      <c r="W10" s="87"/>
+      <c r="Z10" s="86"/>
+      <c r="AE10" s="87"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B11" s="86"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="G11" s="87"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="O11" s="87"/>
+      <c r="R11" s="86"/>
+      <c r="T11" s="95"/>
+      <c r="U11" s="95"/>
+      <c r="W11" s="87"/>
+      <c r="Z11" s="86"/>
+      <c r="AB11" s="96"/>
+      <c r="AE11" s="87"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B12" s="86"/>
+      <c r="E12" s="93"/>
+      <c r="G12" s="87"/>
+      <c r="J12" s="86"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="O12" s="87"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="95"/>
+      <c r="W12" s="87"/>
+      <c r="Z12" s="86"/>
+      <c r="AA12" s="96"/>
+      <c r="AB12" s="96"/>
+      <c r="AC12" s="96"/>
+      <c r="AE12" s="87"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B13" s="86"/>
+      <c r="G13" s="87"/>
+      <c r="J13" s="86"/>
+      <c r="O13" s="87"/>
+      <c r="R13" s="86"/>
+      <c r="W13" s="87"/>
+      <c r="Z13" s="86"/>
+      <c r="AE13" s="87"/>
+    </row>
+    <row r="14" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="88"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="90"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="90"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="90"/>
+      <c r="Z14" s="88"/>
+      <c r="AA14" s="89"/>
+      <c r="AB14" s="89"/>
+      <c r="AC14" s="89"/>
+      <c r="AD14" s="89"/>
+      <c r="AE14" s="90"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/design/游戏设计.xlsx
+++ b/design/游戏设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SRC\.NET-WorkSpace\RussianBLock\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DE069D-A9B0-48D4-A58C-804A5B54B1AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8B684C-0E2C-4B1E-9146-F9551E2DFC97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="4">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8914,7 +8914,7 @@
   <dimension ref="A1:AE14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8962,34 +8962,58 @@
       <c r="J3" s="86"/>
       <c r="O3" s="87"/>
       <c r="R3" s="86"/>
-      <c r="U3" s="92"/>
+      <c r="U3" s="92" t="s">
+        <v>3</v>
+      </c>
       <c r="W3" s="87"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="79"/>
       <c r="B4" s="86"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="D4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="78" t="s">
+        <v>1</v>
+      </c>
       <c r="G4" s="87"/>
       <c r="H4" s="80"/>
       <c r="I4" s="79"/>
       <c r="J4" s="86"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
+      <c r="K4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="91" t="s">
+        <v>3</v>
+      </c>
       <c r="O4" s="87"/>
       <c r="R4" s="86"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
+      <c r="S4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="T4" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="U4" s="92" t="s">
+        <v>2</v>
+      </c>
       <c r="W4" s="87"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="79"/>
       <c r="B5" s="86"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
+      <c r="D5" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="78" t="s">
+        <v>3</v>
+      </c>
       <c r="G5" s="87"/>
       <c r="H5" s="80"/>
       <c r="I5" s="79"/>
@@ -9078,38 +9102,70 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B11" s="86"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
+      <c r="C11" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="93" t="s">
+        <v>2</v>
+      </c>
       <c r="G11" s="87"/>
       <c r="J11" s="86"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
+      <c r="K11" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="94" t="s">
+        <v>1</v>
+      </c>
       <c r="O11" s="87"/>
       <c r="R11" s="86"/>
-      <c r="T11" s="95"/>
-      <c r="U11" s="95"/>
+      <c r="T11" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="U11" s="95" t="s">
+        <v>3</v>
+      </c>
       <c r="W11" s="87"/>
       <c r="Z11" s="86"/>
-      <c r="AB11" s="96"/>
+      <c r="AB11" s="96" t="s">
+        <v>0</v>
+      </c>
       <c r="AE11" s="87"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B12" s="86"/>
-      <c r="E12" s="93"/>
+      <c r="E12" s="93" t="s">
+        <v>3</v>
+      </c>
       <c r="G12" s="87"/>
       <c r="J12" s="86"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
+      <c r="L12" s="94" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" s="94" t="s">
+        <v>3</v>
+      </c>
       <c r="O12" s="87"/>
       <c r="R12" s="86"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="95"/>
+      <c r="S12" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="T12" s="95" t="s">
+        <v>1</v>
+      </c>
       <c r="W12" s="87"/>
       <c r="Z12" s="86"/>
-      <c r="AA12" s="96"/>
-      <c r="AB12" s="96"/>
-      <c r="AC12" s="96"/>
+      <c r="AA12" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC12" s="96" t="s">
+        <v>3</v>
+      </c>
       <c r="AE12" s="87"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">

--- a/design/游戏设计.xlsx
+++ b/design/游戏设计.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22508"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SRC\.NET-WorkSpace\RussianBLock\design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SRC\.NET-WorkSpace\RussianBLock\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8B684C-0E2C-4B1E-9146-F9551E2DFC97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC81CA5-C21A-49BF-9BB6-70E99301C34F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17670" yWindow="2235" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="像素设计" sheetId="1" r:id="rId1"/>
     <sheet name="砖块形状" sheetId="2" r:id="rId2"/>
     <sheet name="砖块旋转" sheetId="4" r:id="rId3"/>
     <sheet name="下一个砖块" sheetId="5" r:id="rId4"/>
+    <sheet name="Aplha砖块的起始点" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="4">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,7 +132,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -654,11 +655,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -756,6 +796,21 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3538,6 +3593,599 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>181207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>65048</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>78987</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="对话气泡: 圆角矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E879AC98-BCA3-46A1-B4C0-A08E94EECD51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1997927" y="181207"/>
+          <a:ext cx="864219" cy="260195"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -84239"/>
+            <a:gd name="adj2" fmla="val -59533"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>BlockList(5)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>27878</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>134744</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>92926</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>32524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="对话气泡: 圆角矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B790BDCF-080A-4E2A-801D-2280C9ED5F8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2025805" y="1059366"/>
+          <a:ext cx="864219" cy="260195"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -84239"/>
+            <a:gd name="adj2" fmla="val -59533"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>BlockList(4)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>13939</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171914</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>88280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="对话气泡: 圆角矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{214BD3AE-E3D3-4039-AA84-06AEDA049E92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2011866" y="2039744"/>
+          <a:ext cx="957146" cy="260195"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -84239"/>
+            <a:gd name="adj2" fmla="val -59533"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>BlockList(16)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>37170</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>195145</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>78988</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="对话气泡: 圆角矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9B4557B-7939-43A3-B5D5-3DE9267CB7B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2035097" y="2955073"/>
+          <a:ext cx="957146" cy="260195"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -84239"/>
+            <a:gd name="adj2" fmla="val -59533"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>BlockList(4)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>32523</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171914</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190498</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>69695</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="对话气泡: 圆角矩形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F724C47-1224-4451-8A9B-B1FC2AB54C9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2030450" y="3870402"/>
+          <a:ext cx="957146" cy="260195"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -84239"/>
+            <a:gd name="adj2" fmla="val -59533"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>BlockList(4)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>23230</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>13938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>181205</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>92926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="对话气泡: 圆角矩形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62FAA631-A8EF-4A8B-8CEC-DFA7742B648E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2021157" y="4818255"/>
+          <a:ext cx="957146" cy="260195"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -84239"/>
+            <a:gd name="adj2" fmla="val -59533"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>BlockList(16)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>63976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57721</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>144928</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="对话气泡: 圆角矩形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA8CFE34-E054-4435-91A3-C38E209AB6CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1970942" y="5830264"/>
+          <a:ext cx="856356" cy="264126"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -84239"/>
+            <a:gd name="adj2" fmla="val -59533"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>BlockList(5)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3804,7 +4452,7 @@
   <dimension ref="A1:CP113"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AW7" sqref="AW7"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7514,7 +8162,7 @@
   <dimension ref="B2:I14"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B10" sqref="B10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8913,8 +9561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23F077E-CBAB-4458-834E-F24675CE57BE}">
   <dimension ref="A1:AE14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="AA11" sqref="AA11:AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9208,4 +9856,270 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D89ECA-BFD6-4F23-B479-B6534DF543BC}">
+  <dimension ref="D1:H34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="2.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E1" s="39"/>
+      <c r="F1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="111" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E2" s="41"/>
+      <c r="F2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E3" s="41"/>
+      <c r="H3" s="17"/>
+    </row>
+    <row r="4" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="43"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="44"/>
+    </row>
+    <row r="5" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E6" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="98" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="99" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E7" s="41"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E8" s="41"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="43"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="44"/>
+    </row>
+    <row r="10" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D11" s="17"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D12" s="17"/>
+      <c r="E12" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E13" s="41"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="43"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="44"/>
+    </row>
+    <row r="15" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+    </row>
+    <row r="16" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D16" s="17"/>
+      <c r="E16" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D17" s="17"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E18" s="41"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="43"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="44"/>
+    </row>
+    <row r="20" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D21" s="17"/>
+      <c r="E21" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="21"/>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D22" s="17"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E23" s="41"/>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="43"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="44"/>
+    </row>
+    <row r="25" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D26" s="17"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="106" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="21"/>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D27" s="17"/>
+      <c r="E27" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="77"/>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E28" s="41"/>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="43"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="44"/>
+    </row>
+    <row r="30" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D31" s="17"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="82"/>
+      <c r="H31" s="104"/>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D32" s="17"/>
+      <c r="E32" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E33" s="41"/>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="43"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="44"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>